--- a/excel/finished/烧结/5#烧结机生产月报v1.xlsx
+++ b/excel/finished/烧结/5#烧结机生产月报v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
   <si>
     <t>韶钢5#烧结机生产月报（一）</t>
   </si>
@@ -33,9 +33,6 @@
     <t>烧结矿粒度</t>
   </si>
   <si>
-    <t>0~3mm比例</t>
-  </si>
-  <si>
     <t>进场物料</t>
   </si>
   <si>
@@ -204,33 +201,33 @@
     <t>ST5_MESR_SIN_SinterL5mm_1d_avg</t>
   </si>
   <si>
+    <t>ST5_L1R_SIN_QuLimeDayAmt_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_L1R_SIN_OreBldDayAmt_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_L1R_SIN_DoloDayAmt_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_L1R_SIN_FuelDayAmt_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterTFe_1d_avg</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterFeO_1d_avg</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterCaO_1d_avg</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterSiO2_1d_avg</t>
+  </si>
+  <si>
     <t>MES</t>
   </si>
   <si>
-    <t>ST5_L1R_SIN_QuLimeDayAmt_1d_cur</t>
-  </si>
-  <si>
-    <t>ST5_L1R_SIN_OreBldDayAmt_1d_cur</t>
-  </si>
-  <si>
-    <t>ST5_L1R_SIN_DoloDayAmt_1d_cur</t>
-  </si>
-  <si>
-    <t>ST5_L1R_SIN_FuelDayAmt_1d_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterTFe_1d_avg</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterFeO_1d_avg</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterCaO_1d_avg</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterSiO2_1d_avg</t>
-  </si>
-  <si>
     <t>ST5_MESR_SIN_SinterS_1d_avg</t>
   </si>
   <si>
@@ -402,16 +399,40 @@
     <t>ST5_MESR_SIN_SinterDayConfirmY_1d_cur</t>
   </si>
   <si>
-    <t>ST5_MESR_SIN_SinterMgO_1d_avg</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterCu_1d_avg</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterMn_1d_avg</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterAl2O3_1d_avg</t>
+    <t>ST5_MESR_SIN_SinterTFe_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterFeO_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterCaO_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterSiO2_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterMgO_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterS_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterCu_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterMn_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterAl2O3_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterR_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterTumIx_1d_cur</t>
+  </si>
+  <si>
+    <t>ST5_MESR_SIN_SinterScrIx_1d_cur</t>
   </si>
   <si>
     <t>ST5_L1R_SIN_TI354_1d_avg</t>
@@ -428,8 +449,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -475,18 +496,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,14 +520,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -513,10 +542,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,7 +559,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,48 +594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,8 +610,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,7 +673,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,31 +715,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,31 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,19 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,19 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,9 +893,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,48 +975,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,10 +994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,133 +1006,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,10 +1570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1560,16 +1581,15 @@
     <col min="1" max="1" width="12.5" style="22" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="23" customWidth="1"/>
-    <col min="4" max="19" width="9.00833333333333" style="23" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="23" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="10" style="23" customWidth="1"/>
-    <col min="23" max="24" width="11" style="23" customWidth="1"/>
-    <col min="25" max="37" width="9.00833333333333" style="23" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="22"/>
+    <col min="4" max="18" width="9.00833333333333" style="23" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="10" style="23" customWidth="1"/>
+    <col min="21" max="22" width="11" style="23" customWidth="1"/>
+    <col min="23" max="35" width="9.00833333333333" style="23" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" spans="1:37">
+    <row r="1" ht="29.25" spans="1:35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1607,10 +1627,8 @@
       <c r="AG1" s="17"/>
       <c r="AH1" s="17"/>
       <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
     </row>
-    <row r="2" s="19" customFormat="1" ht="21" spans="1:37">
+    <row r="2" s="19" customFormat="1" ht="21" spans="1:35">
       <c r="A2" s="24"/>
       <c r="B2" s="25" t="s">
         <v>1</v>
@@ -1639,16 +1657,14 @@
         <v>4</v>
       </c>
       <c r="T2" s="25"/>
-      <c r="U2" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="U2" s="25"/>
       <c r="V2" s="25"/>
       <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
+      <c r="X2" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Y2" s="25"/>
-      <c r="Z2" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
@@ -1658,292 +1674,278 @@
       <c r="AG2" s="25"/>
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
     </row>
-    <row r="3" s="20" customFormat="1" ht="30" spans="1:37">
+    <row r="3" s="20" customFormat="1" ht="15" spans="1:35">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="N3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="P3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="Q3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="27" t="s">
+      <c r="S3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="V3" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="12" t="s">
+    </row>
+    <row r="4" s="21" customFormat="1" spans="1:35">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" s="21" customFormat="1" spans="1:37">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="99.75" hidden="1" customHeight="1" spans="1:35">
+      <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK4" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="99.75" hidden="1" customHeight="1" spans="1:37">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>61</v>
@@ -1954,13 +1956,13 @@
       <c r="V5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="15"/>
+      <c r="X5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="15"/>
       <c r="Z5" s="15" t="s">
         <v>66</v>
       </c>
@@ -1974,34 +1976,28 @@
         <v>69</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="AH5" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AK5" s="15" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:35">
       <c r="A6" s="16">
         <f ca="1">IF(_metadata!B22="",EOMONTH(NOW(),-1)+1,_metadata!B22)</f>
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B6" s="17" t="str">
         <f>IF(_tag1_month_all!D2="","",_tag1_month_all!D2)</f>
@@ -2072,86 +2068,78 @@
         <v/>
       </c>
       <c r="S6" s="17" t="str">
-        <f>IF(_tag1_month_all!S2="","",_tag1_month_all!S2)</f>
+        <f>IF(_tag1_month_all!U2="","",_tag1_month_all!U2)</f>
         <v/>
       </c>
       <c r="T6" s="17" t="str">
-        <f>IF(_tag1_month_all!T2="","",_tag1_month_all!T2)</f>
+        <f>IF(_tag1_month_all!V2="","",_tag1_month_all!V2)</f>
         <v/>
       </c>
       <c r="U6" s="17" t="str">
-        <f>IF(_tag1_month_all!U2="","",_tag1_month_all!U2)</f>
+        <f>IF(_tag1_month_all!W2="","",_tag1_month_all!W2)</f>
         <v/>
       </c>
       <c r="V6" s="17" t="str">
-        <f>IF(_tag1_month_all!V2="","",_tag1_month_all!V2)</f>
+        <f>IF(_tag1_month_all!X2="","",_tag1_month_all!X2)</f>
         <v/>
       </c>
       <c r="W6" s="17" t="str">
-        <f>IF(_tag1_month_all!W2="","",_tag1_month_all!W2)</f>
+        <f>IF(_tag1_month_all!Y2="","",_tag1_month_all!Y2)</f>
         <v/>
       </c>
       <c r="X6" s="17" t="str">
-        <f>IF(_tag1_month_all!X2="","",_tag1_month_all!X2)</f>
+        <f>IF(_tag1_month_all!Z2="","",_tag1_month_all!Z2)</f>
         <v/>
       </c>
       <c r="Y6" s="17" t="str">
-        <f>IF(_tag1_month_all!Y2="","",_tag1_month_all!Y2)</f>
+        <f>IF(_tag1_month_all!AA2="","",_tag1_month_all!AA2)</f>
         <v/>
       </c>
       <c r="Z6" s="17" t="str">
-        <f>IF(_tag1_month_all!Z2="","",_tag1_month_all!Z2)</f>
+        <f>IF(_tag1_month_all!AB2="","",_tag1_month_all!AB2)</f>
         <v/>
       </c>
       <c r="AA6" s="17" t="str">
-        <f>IF(_tag1_month_all!AA2="","",_tag1_month_all!AA2)</f>
+        <f>IF(_tag1_month_all!AC2="","",_tag1_month_all!AC2)</f>
         <v/>
       </c>
       <c r="AB6" s="17" t="str">
-        <f>IF(_tag1_month_all!AB2="","",_tag1_month_all!AB2)</f>
+        <f>IF(_tag1_month_all!AD2="","",_tag1_month_all!AD2)</f>
         <v/>
       </c>
       <c r="AC6" s="17" t="str">
-        <f>IF(_tag1_month_all!AC2="","",_tag1_month_all!AC2)</f>
+        <f>IF(_tag1_month_all!AE2="","",_tag1_month_all!AE2)</f>
         <v/>
       </c>
       <c r="AD6" s="17" t="str">
-        <f>IF(_tag1_month_all!AD2="","",_tag1_month_all!AD2)</f>
+        <f>IF(_tag1_month_all!AF2="","",_tag1_month_all!AF2)</f>
         <v/>
       </c>
       <c r="AE6" s="17" t="str">
-        <f>IF(_tag1_month_all!AE2="","",_tag1_month_all!AE2)</f>
+        <f>IF(_tag1_month_all!AG2="","",_tag1_month_all!AG2)</f>
         <v/>
       </c>
       <c r="AF6" s="17" t="str">
-        <f>IF(_tag1_month_all!AF2="","",_tag1_month_all!AF2)</f>
+        <f>IF(_tag1_month_all!AH2="","",_tag1_month_all!AH2)</f>
         <v/>
       </c>
       <c r="AG6" s="17" t="str">
-        <f>IF(_tag1_month_all!AG2="","",_tag1_month_all!AG2)</f>
+        <f>IF(_tag1_month_all!AI2="","",_tag1_month_all!AI2)</f>
         <v/>
       </c>
       <c r="AH6" s="17" t="str">
-        <f>IF(_tag1_month_all!AH2="","",_tag1_month_all!AH2)</f>
+        <f>IF(_tag1_month_all!AJ2="","",_tag1_month_all!AJ2)</f>
         <v/>
       </c>
       <c r="AI6" s="17" t="str">
-        <f>IF(_tag1_month_all!AI2="","",_tag1_month_all!AI2)</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ2="","",_tag1_month_all!AJ2)</f>
-        <v/>
-      </c>
-      <c r="AK6" s="17" t="str">
         <f>IF(_tag1_month_all!AK2="","",_tag1_month_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:35">
       <c r="A7" s="16">
         <f ca="1" t="shared" ref="A7:A36" si="0">A6+1</f>
-        <v>43587</v>
+        <v>43618</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>IF(_tag1_month_all!D3="","",_tag1_month_all!D3)</f>
@@ -2222,86 +2210,78 @@
         <v/>
       </c>
       <c r="S7" s="17" t="str">
-        <f>IF(_tag1_month_all!S3="","",_tag1_month_all!S3)</f>
+        <f>IF(_tag1_month_all!U3="","",_tag1_month_all!U3)</f>
         <v/>
       </c>
       <c r="T7" s="17" t="str">
-        <f>IF(_tag1_month_all!T3="","",_tag1_month_all!T3)</f>
+        <f>IF(_tag1_month_all!V3="","",_tag1_month_all!V3)</f>
         <v/>
       </c>
       <c r="U7" s="17" t="str">
-        <f>IF(_tag1_month_all!U3="","",_tag1_month_all!U3)</f>
+        <f>IF(_tag1_month_all!W3="","",_tag1_month_all!W3)</f>
         <v/>
       </c>
       <c r="V7" s="17" t="str">
-        <f>IF(_tag1_month_all!V3="","",_tag1_month_all!V3)</f>
+        <f>IF(_tag1_month_all!X3="","",_tag1_month_all!X3)</f>
         <v/>
       </c>
       <c r="W7" s="17" t="str">
-        <f>IF(_tag1_month_all!W3="","",_tag1_month_all!W3)</f>
+        <f>IF(_tag1_month_all!Y3="","",_tag1_month_all!Y3)</f>
         <v/>
       </c>
       <c r="X7" s="17" t="str">
-        <f>IF(_tag1_month_all!X3="","",_tag1_month_all!X3)</f>
+        <f>IF(_tag1_month_all!Z3="","",_tag1_month_all!Z3)</f>
         <v/>
       </c>
       <c r="Y7" s="17" t="str">
-        <f>IF(_tag1_month_all!Y3="","",_tag1_month_all!Y3)</f>
+        <f>IF(_tag1_month_all!AA3="","",_tag1_month_all!AA3)</f>
         <v/>
       </c>
       <c r="Z7" s="17" t="str">
-        <f>IF(_tag1_month_all!Z3="","",_tag1_month_all!Z3)</f>
+        <f>IF(_tag1_month_all!AB3="","",_tag1_month_all!AB3)</f>
         <v/>
       </c>
       <c r="AA7" s="17" t="str">
-        <f>IF(_tag1_month_all!AA3="","",_tag1_month_all!AA3)</f>
+        <f>IF(_tag1_month_all!AC3="","",_tag1_month_all!AC3)</f>
         <v/>
       </c>
       <c r="AB7" s="17" t="str">
-        <f>IF(_tag1_month_all!AB3="","",_tag1_month_all!AB3)</f>
+        <f>IF(_tag1_month_all!AD3="","",_tag1_month_all!AD3)</f>
         <v/>
       </c>
       <c r="AC7" s="17" t="str">
-        <f>IF(_tag1_month_all!AC3="","",_tag1_month_all!AC3)</f>
+        <f>IF(_tag1_month_all!AE3="","",_tag1_month_all!AE3)</f>
         <v/>
       </c>
       <c r="AD7" s="17" t="str">
-        <f>IF(_tag1_month_all!AD3="","",_tag1_month_all!AD3)</f>
+        <f>IF(_tag1_month_all!AF3="","",_tag1_month_all!AF3)</f>
         <v/>
       </c>
       <c r="AE7" s="17" t="str">
-        <f>IF(_tag1_month_all!AE3="","",_tag1_month_all!AE3)</f>
+        <f>IF(_tag1_month_all!AG3="","",_tag1_month_all!AG3)</f>
         <v/>
       </c>
       <c r="AF7" s="17" t="str">
-        <f>IF(_tag1_month_all!AF3="","",_tag1_month_all!AF3)</f>
+        <f>IF(_tag1_month_all!AH3="","",_tag1_month_all!AH3)</f>
         <v/>
       </c>
       <c r="AG7" s="17" t="str">
-        <f>IF(_tag1_month_all!AG3="","",_tag1_month_all!AG3)</f>
+        <f>IF(_tag1_month_all!AI3="","",_tag1_month_all!AI3)</f>
         <v/>
       </c>
       <c r="AH7" s="17" t="str">
-        <f>IF(_tag1_month_all!AH3="","",_tag1_month_all!AH3)</f>
+        <f>IF(_tag1_month_all!AJ3="","",_tag1_month_all!AJ3)</f>
         <v/>
       </c>
       <c r="AI7" s="17" t="str">
-        <f>IF(_tag1_month_all!AI3="","",_tag1_month_all!AI3)</f>
-        <v/>
-      </c>
-      <c r="AJ7" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ3="","",_tag1_month_all!AJ3)</f>
-        <v/>
-      </c>
-      <c r="AK7" s="17" t="str">
         <f>IF(_tag1_month_all!AK3="","",_tag1_month_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:35">
       <c r="A8" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43588</v>
+        <v>43619</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>IF(_tag1_month_all!D4="","",_tag1_month_all!D4)</f>
@@ -2372,86 +2352,78 @@
         <v/>
       </c>
       <c r="S8" s="17" t="str">
-        <f>IF(_tag1_month_all!S4="","",_tag1_month_all!S4)</f>
+        <f>IF(_tag1_month_all!U4="","",_tag1_month_all!U4)</f>
         <v/>
       </c>
       <c r="T8" s="17" t="str">
-        <f>IF(_tag1_month_all!T4="","",_tag1_month_all!T4)</f>
+        <f>IF(_tag1_month_all!V4="","",_tag1_month_all!V4)</f>
         <v/>
       </c>
       <c r="U8" s="17" t="str">
-        <f>IF(_tag1_month_all!U4="","",_tag1_month_all!U4)</f>
+        <f>IF(_tag1_month_all!W4="","",_tag1_month_all!W4)</f>
         <v/>
       </c>
       <c r="V8" s="17" t="str">
-        <f>IF(_tag1_month_all!V4="","",_tag1_month_all!V4)</f>
+        <f>IF(_tag1_month_all!X4="","",_tag1_month_all!X4)</f>
         <v/>
       </c>
       <c r="W8" s="17" t="str">
-        <f>IF(_tag1_month_all!W4="","",_tag1_month_all!W4)</f>
+        <f>IF(_tag1_month_all!Y4="","",_tag1_month_all!Y4)</f>
         <v/>
       </c>
       <c r="X8" s="17" t="str">
-        <f>IF(_tag1_month_all!X4="","",_tag1_month_all!X4)</f>
+        <f>IF(_tag1_month_all!Z4="","",_tag1_month_all!Z4)</f>
         <v/>
       </c>
       <c r="Y8" s="17" t="str">
-        <f>IF(_tag1_month_all!Y4="","",_tag1_month_all!Y4)</f>
+        <f>IF(_tag1_month_all!AA4="","",_tag1_month_all!AA4)</f>
         <v/>
       </c>
       <c r="Z8" s="17" t="str">
-        <f>IF(_tag1_month_all!Z4="","",_tag1_month_all!Z4)</f>
+        <f>IF(_tag1_month_all!AB4="","",_tag1_month_all!AB4)</f>
         <v/>
       </c>
       <c r="AA8" s="17" t="str">
-        <f>IF(_tag1_month_all!AA4="","",_tag1_month_all!AA4)</f>
+        <f>IF(_tag1_month_all!AC4="","",_tag1_month_all!AC4)</f>
         <v/>
       </c>
       <c r="AB8" s="17" t="str">
-        <f>IF(_tag1_month_all!AB4="","",_tag1_month_all!AB4)</f>
+        <f>IF(_tag1_month_all!AD4="","",_tag1_month_all!AD4)</f>
         <v/>
       </c>
       <c r="AC8" s="17" t="str">
-        <f>IF(_tag1_month_all!AC4="","",_tag1_month_all!AC4)</f>
+        <f>IF(_tag1_month_all!AE4="","",_tag1_month_all!AE4)</f>
         <v/>
       </c>
       <c r="AD8" s="17" t="str">
-        <f>IF(_tag1_month_all!AD4="","",_tag1_month_all!AD4)</f>
+        <f>IF(_tag1_month_all!AF4="","",_tag1_month_all!AF4)</f>
         <v/>
       </c>
       <c r="AE8" s="17" t="str">
-        <f>IF(_tag1_month_all!AE4="","",_tag1_month_all!AE4)</f>
+        <f>IF(_tag1_month_all!AG4="","",_tag1_month_all!AG4)</f>
         <v/>
       </c>
       <c r="AF8" s="17" t="str">
-        <f>IF(_tag1_month_all!AF4="","",_tag1_month_all!AF4)</f>
+        <f>IF(_tag1_month_all!AH4="","",_tag1_month_all!AH4)</f>
         <v/>
       </c>
       <c r="AG8" s="17" t="str">
-        <f>IF(_tag1_month_all!AG4="","",_tag1_month_all!AG4)</f>
+        <f>IF(_tag1_month_all!AI4="","",_tag1_month_all!AI4)</f>
         <v/>
       </c>
       <c r="AH8" s="17" t="str">
-        <f>IF(_tag1_month_all!AH4="","",_tag1_month_all!AH4)</f>
+        <f>IF(_tag1_month_all!AJ4="","",_tag1_month_all!AJ4)</f>
         <v/>
       </c>
       <c r="AI8" s="17" t="str">
-        <f>IF(_tag1_month_all!AI4="","",_tag1_month_all!AI4)</f>
-        <v/>
-      </c>
-      <c r="AJ8" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ4="","",_tag1_month_all!AJ4)</f>
-        <v/>
-      </c>
-      <c r="AK8" s="17" t="str">
         <f>IF(_tag1_month_all!AK4="","",_tag1_month_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:35">
       <c r="A9" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43589</v>
+        <v>43620</v>
       </c>
       <c r="B9" s="17" t="str">
         <f>IF(_tag1_month_all!D5="","",_tag1_month_all!D5)</f>
@@ -2522,86 +2494,78 @@
         <v/>
       </c>
       <c r="S9" s="17" t="str">
-        <f>IF(_tag1_month_all!S5="","",_tag1_month_all!S5)</f>
+        <f>IF(_tag1_month_all!U5="","",_tag1_month_all!U5)</f>
         <v/>
       </c>
       <c r="T9" s="17" t="str">
-        <f>IF(_tag1_month_all!T5="","",_tag1_month_all!T5)</f>
+        <f>IF(_tag1_month_all!V5="","",_tag1_month_all!V5)</f>
         <v/>
       </c>
       <c r="U9" s="17" t="str">
-        <f>IF(_tag1_month_all!U5="","",_tag1_month_all!U5)</f>
+        <f>IF(_tag1_month_all!W5="","",_tag1_month_all!W5)</f>
         <v/>
       </c>
       <c r="V9" s="17" t="str">
-        <f>IF(_tag1_month_all!V5="","",_tag1_month_all!V5)</f>
+        <f>IF(_tag1_month_all!X5="","",_tag1_month_all!X5)</f>
         <v/>
       </c>
       <c r="W9" s="17" t="str">
-        <f>IF(_tag1_month_all!W5="","",_tag1_month_all!W5)</f>
+        <f>IF(_tag1_month_all!Y5="","",_tag1_month_all!Y5)</f>
         <v/>
       </c>
       <c r="X9" s="17" t="str">
-        <f>IF(_tag1_month_all!X5="","",_tag1_month_all!X5)</f>
+        <f>IF(_tag1_month_all!Z5="","",_tag1_month_all!Z5)</f>
         <v/>
       </c>
       <c r="Y9" s="17" t="str">
-        <f>IF(_tag1_month_all!Y5="","",_tag1_month_all!Y5)</f>
+        <f>IF(_tag1_month_all!AA5="","",_tag1_month_all!AA5)</f>
         <v/>
       </c>
       <c r="Z9" s="17" t="str">
-        <f>IF(_tag1_month_all!Z5="","",_tag1_month_all!Z5)</f>
+        <f>IF(_tag1_month_all!AB5="","",_tag1_month_all!AB5)</f>
         <v/>
       </c>
       <c r="AA9" s="17" t="str">
-        <f>IF(_tag1_month_all!AA5="","",_tag1_month_all!AA5)</f>
+        <f>IF(_tag1_month_all!AC5="","",_tag1_month_all!AC5)</f>
         <v/>
       </c>
       <c r="AB9" s="17" t="str">
-        <f>IF(_tag1_month_all!AB5="","",_tag1_month_all!AB5)</f>
+        <f>IF(_tag1_month_all!AD5="","",_tag1_month_all!AD5)</f>
         <v/>
       </c>
       <c r="AC9" s="17" t="str">
-        <f>IF(_tag1_month_all!AC5="","",_tag1_month_all!AC5)</f>
+        <f>IF(_tag1_month_all!AE5="","",_tag1_month_all!AE5)</f>
         <v/>
       </c>
       <c r="AD9" s="17" t="str">
-        <f>IF(_tag1_month_all!AD5="","",_tag1_month_all!AD5)</f>
+        <f>IF(_tag1_month_all!AF5="","",_tag1_month_all!AF5)</f>
         <v/>
       </c>
       <c r="AE9" s="17" t="str">
-        <f>IF(_tag1_month_all!AE5="","",_tag1_month_all!AE5)</f>
+        <f>IF(_tag1_month_all!AG5="","",_tag1_month_all!AG5)</f>
         <v/>
       </c>
       <c r="AF9" s="17" t="str">
-        <f>IF(_tag1_month_all!AF5="","",_tag1_month_all!AF5)</f>
+        <f>IF(_tag1_month_all!AH5="","",_tag1_month_all!AH5)</f>
         <v/>
       </c>
       <c r="AG9" s="17" t="str">
-        <f>IF(_tag1_month_all!AG5="","",_tag1_month_all!AG5)</f>
+        <f>IF(_tag1_month_all!AI5="","",_tag1_month_all!AI5)</f>
         <v/>
       </c>
       <c r="AH9" s="17" t="str">
-        <f>IF(_tag1_month_all!AH5="","",_tag1_month_all!AH5)</f>
+        <f>IF(_tag1_month_all!AJ5="","",_tag1_month_all!AJ5)</f>
         <v/>
       </c>
       <c r="AI9" s="17" t="str">
-        <f>IF(_tag1_month_all!AI5="","",_tag1_month_all!AI5)</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ5="","",_tag1_month_all!AJ5)</f>
-        <v/>
-      </c>
-      <c r="AK9" s="17" t="str">
         <f>IF(_tag1_month_all!AK5="","",_tag1_month_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:35">
       <c r="A10" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43590</v>
+        <v>43621</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>IF(_tag1_month_all!D6="","",_tag1_month_all!D6)</f>
@@ -2672,86 +2636,78 @@
         <v/>
       </c>
       <c r="S10" s="17" t="str">
-        <f>IF(_tag1_month_all!S6="","",_tag1_month_all!S6)</f>
+        <f>IF(_tag1_month_all!U6="","",_tag1_month_all!U6)</f>
         <v/>
       </c>
       <c r="T10" s="17" t="str">
-        <f>IF(_tag1_month_all!T6="","",_tag1_month_all!T6)</f>
+        <f>IF(_tag1_month_all!V6="","",_tag1_month_all!V6)</f>
         <v/>
       </c>
       <c r="U10" s="17" t="str">
-        <f>IF(_tag1_month_all!U6="","",_tag1_month_all!U6)</f>
+        <f>IF(_tag1_month_all!W6="","",_tag1_month_all!W6)</f>
         <v/>
       </c>
       <c r="V10" s="17" t="str">
-        <f>IF(_tag1_month_all!V6="","",_tag1_month_all!V6)</f>
+        <f>IF(_tag1_month_all!X6="","",_tag1_month_all!X6)</f>
         <v/>
       </c>
       <c r="W10" s="17" t="str">
-        <f>IF(_tag1_month_all!W6="","",_tag1_month_all!W6)</f>
+        <f>IF(_tag1_month_all!Y6="","",_tag1_month_all!Y6)</f>
         <v/>
       </c>
       <c r="X10" s="17" t="str">
-        <f>IF(_tag1_month_all!X6="","",_tag1_month_all!X6)</f>
+        <f>IF(_tag1_month_all!Z6="","",_tag1_month_all!Z6)</f>
         <v/>
       </c>
       <c r="Y10" s="17" t="str">
-        <f>IF(_tag1_month_all!Y6="","",_tag1_month_all!Y6)</f>
+        <f>IF(_tag1_month_all!AA6="","",_tag1_month_all!AA6)</f>
         <v/>
       </c>
       <c r="Z10" s="17" t="str">
-        <f>IF(_tag1_month_all!Z6="","",_tag1_month_all!Z6)</f>
+        <f>IF(_tag1_month_all!AB6="","",_tag1_month_all!AB6)</f>
         <v/>
       </c>
       <c r="AA10" s="17" t="str">
-        <f>IF(_tag1_month_all!AA6="","",_tag1_month_all!AA6)</f>
+        <f>IF(_tag1_month_all!AC6="","",_tag1_month_all!AC6)</f>
         <v/>
       </c>
       <c r="AB10" s="17" t="str">
-        <f>IF(_tag1_month_all!AB6="","",_tag1_month_all!AB6)</f>
+        <f>IF(_tag1_month_all!AD6="","",_tag1_month_all!AD6)</f>
         <v/>
       </c>
       <c r="AC10" s="17" t="str">
-        <f>IF(_tag1_month_all!AC6="","",_tag1_month_all!AC6)</f>
+        <f>IF(_tag1_month_all!AE6="","",_tag1_month_all!AE6)</f>
         <v/>
       </c>
       <c r="AD10" s="17" t="str">
-        <f>IF(_tag1_month_all!AD6="","",_tag1_month_all!AD6)</f>
+        <f>IF(_tag1_month_all!AF6="","",_tag1_month_all!AF6)</f>
         <v/>
       </c>
       <c r="AE10" s="17" t="str">
-        <f>IF(_tag1_month_all!AE6="","",_tag1_month_all!AE6)</f>
+        <f>IF(_tag1_month_all!AG6="","",_tag1_month_all!AG6)</f>
         <v/>
       </c>
       <c r="AF10" s="17" t="str">
-        <f>IF(_tag1_month_all!AF6="","",_tag1_month_all!AF6)</f>
+        <f>IF(_tag1_month_all!AH6="","",_tag1_month_all!AH6)</f>
         <v/>
       </c>
       <c r="AG10" s="17" t="str">
-        <f>IF(_tag1_month_all!AG6="","",_tag1_month_all!AG6)</f>
+        <f>IF(_tag1_month_all!AI6="","",_tag1_month_all!AI6)</f>
         <v/>
       </c>
       <c r="AH10" s="17" t="str">
-        <f>IF(_tag1_month_all!AH6="","",_tag1_month_all!AH6)</f>
+        <f>IF(_tag1_month_all!AJ6="","",_tag1_month_all!AJ6)</f>
         <v/>
       </c>
       <c r="AI10" s="17" t="str">
-        <f>IF(_tag1_month_all!AI6="","",_tag1_month_all!AI6)</f>
-        <v/>
-      </c>
-      <c r="AJ10" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ6="","",_tag1_month_all!AJ6)</f>
-        <v/>
-      </c>
-      <c r="AK10" s="17" t="str">
         <f>IF(_tag1_month_all!AK6="","",_tag1_month_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:35">
       <c r="A11" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43591</v>
+        <v>43622</v>
       </c>
       <c r="B11" s="17" t="str">
         <f>IF(_tag1_month_all!D7="","",_tag1_month_all!D7)</f>
@@ -2822,86 +2778,78 @@
         <v/>
       </c>
       <c r="S11" s="17" t="str">
-        <f>IF(_tag1_month_all!S7="","",_tag1_month_all!S7)</f>
+        <f>IF(_tag1_month_all!U7="","",_tag1_month_all!U7)</f>
         <v/>
       </c>
       <c r="T11" s="17" t="str">
-        <f>IF(_tag1_month_all!T7="","",_tag1_month_all!T7)</f>
+        <f>IF(_tag1_month_all!V7="","",_tag1_month_all!V7)</f>
         <v/>
       </c>
       <c r="U11" s="17" t="str">
-        <f>IF(_tag1_month_all!U7="","",_tag1_month_all!U7)</f>
+        <f>IF(_tag1_month_all!W7="","",_tag1_month_all!W7)</f>
         <v/>
       </c>
       <c r="V11" s="17" t="str">
-        <f>IF(_tag1_month_all!V7="","",_tag1_month_all!V7)</f>
+        <f>IF(_tag1_month_all!X7="","",_tag1_month_all!X7)</f>
         <v/>
       </c>
       <c r="W11" s="17" t="str">
-        <f>IF(_tag1_month_all!W7="","",_tag1_month_all!W7)</f>
+        <f>IF(_tag1_month_all!Y7="","",_tag1_month_all!Y7)</f>
         <v/>
       </c>
       <c r="X11" s="17" t="str">
-        <f>IF(_tag1_month_all!X7="","",_tag1_month_all!X7)</f>
+        <f>IF(_tag1_month_all!Z7="","",_tag1_month_all!Z7)</f>
         <v/>
       </c>
       <c r="Y11" s="17" t="str">
-        <f>IF(_tag1_month_all!Y7="","",_tag1_month_all!Y7)</f>
+        <f>IF(_tag1_month_all!AA7="","",_tag1_month_all!AA7)</f>
         <v/>
       </c>
       <c r="Z11" s="17" t="str">
-        <f>IF(_tag1_month_all!Z7="","",_tag1_month_all!Z7)</f>
+        <f>IF(_tag1_month_all!AB7="","",_tag1_month_all!AB7)</f>
         <v/>
       </c>
       <c r="AA11" s="17" t="str">
-        <f>IF(_tag1_month_all!AA7="","",_tag1_month_all!AA7)</f>
+        <f>IF(_tag1_month_all!AC7="","",_tag1_month_all!AC7)</f>
         <v/>
       </c>
       <c r="AB11" s="17" t="str">
-        <f>IF(_tag1_month_all!AB7="","",_tag1_month_all!AB7)</f>
+        <f>IF(_tag1_month_all!AD7="","",_tag1_month_all!AD7)</f>
         <v/>
       </c>
       <c r="AC11" s="17" t="str">
-        <f>IF(_tag1_month_all!AC7="","",_tag1_month_all!AC7)</f>
+        <f>IF(_tag1_month_all!AE7="","",_tag1_month_all!AE7)</f>
         <v/>
       </c>
       <c r="AD11" s="17" t="str">
-        <f>IF(_tag1_month_all!AD7="","",_tag1_month_all!AD7)</f>
+        <f>IF(_tag1_month_all!AF7="","",_tag1_month_all!AF7)</f>
         <v/>
       </c>
       <c r="AE11" s="17" t="str">
-        <f>IF(_tag1_month_all!AE7="","",_tag1_month_all!AE7)</f>
+        <f>IF(_tag1_month_all!AG7="","",_tag1_month_all!AG7)</f>
         <v/>
       </c>
       <c r="AF11" s="17" t="str">
-        <f>IF(_tag1_month_all!AF7="","",_tag1_month_all!AF7)</f>
+        <f>IF(_tag1_month_all!AH7="","",_tag1_month_all!AH7)</f>
         <v/>
       </c>
       <c r="AG11" s="17" t="str">
-        <f>IF(_tag1_month_all!AG7="","",_tag1_month_all!AG7)</f>
+        <f>IF(_tag1_month_all!AI7="","",_tag1_month_all!AI7)</f>
         <v/>
       </c>
       <c r="AH11" s="17" t="str">
-        <f>IF(_tag1_month_all!AH7="","",_tag1_month_all!AH7)</f>
+        <f>IF(_tag1_month_all!AJ7="","",_tag1_month_all!AJ7)</f>
         <v/>
       </c>
       <c r="AI11" s="17" t="str">
-        <f>IF(_tag1_month_all!AI7="","",_tag1_month_all!AI7)</f>
-        <v/>
-      </c>
-      <c r="AJ11" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ7="","",_tag1_month_all!AJ7)</f>
-        <v/>
-      </c>
-      <c r="AK11" s="17" t="str">
         <f>IF(_tag1_month_all!AK7="","",_tag1_month_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:35">
       <c r="A12" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43592</v>
+        <v>43623</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>IF(_tag1_month_all!D8="","",_tag1_month_all!D8)</f>
@@ -2972,86 +2920,78 @@
         <v/>
       </c>
       <c r="S12" s="17" t="str">
-        <f>IF(_tag1_month_all!S8="","",_tag1_month_all!S8)</f>
+        <f>IF(_tag1_month_all!U8="","",_tag1_month_all!U8)</f>
         <v/>
       </c>
       <c r="T12" s="17" t="str">
-        <f>IF(_tag1_month_all!T8="","",_tag1_month_all!T8)</f>
+        <f>IF(_tag1_month_all!V8="","",_tag1_month_all!V8)</f>
         <v/>
       </c>
       <c r="U12" s="17" t="str">
-        <f>IF(_tag1_month_all!U8="","",_tag1_month_all!U8)</f>
+        <f>IF(_tag1_month_all!W8="","",_tag1_month_all!W8)</f>
         <v/>
       </c>
       <c r="V12" s="17" t="str">
-        <f>IF(_tag1_month_all!V8="","",_tag1_month_all!V8)</f>
+        <f>IF(_tag1_month_all!X8="","",_tag1_month_all!X8)</f>
         <v/>
       </c>
       <c r="W12" s="17" t="str">
-        <f>IF(_tag1_month_all!W8="","",_tag1_month_all!W8)</f>
+        <f>IF(_tag1_month_all!Y8="","",_tag1_month_all!Y8)</f>
         <v/>
       </c>
       <c r="X12" s="17" t="str">
-        <f>IF(_tag1_month_all!X8="","",_tag1_month_all!X8)</f>
+        <f>IF(_tag1_month_all!Z8="","",_tag1_month_all!Z8)</f>
         <v/>
       </c>
       <c r="Y12" s="17" t="str">
-        <f>IF(_tag1_month_all!Y8="","",_tag1_month_all!Y8)</f>
+        <f>IF(_tag1_month_all!AA8="","",_tag1_month_all!AA8)</f>
         <v/>
       </c>
       <c r="Z12" s="17" t="str">
-        <f>IF(_tag1_month_all!Z8="","",_tag1_month_all!Z8)</f>
+        <f>IF(_tag1_month_all!AB8="","",_tag1_month_all!AB8)</f>
         <v/>
       </c>
       <c r="AA12" s="17" t="str">
-        <f>IF(_tag1_month_all!AA8="","",_tag1_month_all!AA8)</f>
+        <f>IF(_tag1_month_all!AC8="","",_tag1_month_all!AC8)</f>
         <v/>
       </c>
       <c r="AB12" s="17" t="str">
-        <f>IF(_tag1_month_all!AB8="","",_tag1_month_all!AB8)</f>
+        <f>IF(_tag1_month_all!AD8="","",_tag1_month_all!AD8)</f>
         <v/>
       </c>
       <c r="AC12" s="17" t="str">
-        <f>IF(_tag1_month_all!AC8="","",_tag1_month_all!AC8)</f>
+        <f>IF(_tag1_month_all!AE8="","",_tag1_month_all!AE8)</f>
         <v/>
       </c>
       <c r="AD12" s="17" t="str">
-        <f>IF(_tag1_month_all!AD8="","",_tag1_month_all!AD8)</f>
+        <f>IF(_tag1_month_all!AF8="","",_tag1_month_all!AF8)</f>
         <v/>
       </c>
       <c r="AE12" s="17" t="str">
-        <f>IF(_tag1_month_all!AE8="","",_tag1_month_all!AE8)</f>
+        <f>IF(_tag1_month_all!AG8="","",_tag1_month_all!AG8)</f>
         <v/>
       </c>
       <c r="AF12" s="17" t="str">
-        <f>IF(_tag1_month_all!AF8="","",_tag1_month_all!AF8)</f>
+        <f>IF(_tag1_month_all!AH8="","",_tag1_month_all!AH8)</f>
         <v/>
       </c>
       <c r="AG12" s="17" t="str">
-        <f>IF(_tag1_month_all!AG8="","",_tag1_month_all!AG8)</f>
+        <f>IF(_tag1_month_all!AI8="","",_tag1_month_all!AI8)</f>
         <v/>
       </c>
       <c r="AH12" s="17" t="str">
-        <f>IF(_tag1_month_all!AH8="","",_tag1_month_all!AH8)</f>
+        <f>IF(_tag1_month_all!AJ8="","",_tag1_month_all!AJ8)</f>
         <v/>
       </c>
       <c r="AI12" s="17" t="str">
-        <f>IF(_tag1_month_all!AI8="","",_tag1_month_all!AI8)</f>
-        <v/>
-      </c>
-      <c r="AJ12" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ8="","",_tag1_month_all!AJ8)</f>
-        <v/>
-      </c>
-      <c r="AK12" s="17" t="str">
         <f>IF(_tag1_month_all!AK8="","",_tag1_month_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:35">
       <c r="A13" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43593</v>
+        <v>43624</v>
       </c>
       <c r="B13" s="17" t="str">
         <f>IF(_tag1_month_all!D9="","",_tag1_month_all!D9)</f>
@@ -3122,86 +3062,78 @@
         <v/>
       </c>
       <c r="S13" s="17" t="str">
-        <f>IF(_tag1_month_all!S9="","",_tag1_month_all!S9)</f>
+        <f>IF(_tag1_month_all!U9="","",_tag1_month_all!U9)</f>
         <v/>
       </c>
       <c r="T13" s="17" t="str">
-        <f>IF(_tag1_month_all!T9="","",_tag1_month_all!T9)</f>
+        <f>IF(_tag1_month_all!V9="","",_tag1_month_all!V9)</f>
         <v/>
       </c>
       <c r="U13" s="17" t="str">
-        <f>IF(_tag1_month_all!U9="","",_tag1_month_all!U9)</f>
+        <f>IF(_tag1_month_all!W9="","",_tag1_month_all!W9)</f>
         <v/>
       </c>
       <c r="V13" s="17" t="str">
-        <f>IF(_tag1_month_all!V9="","",_tag1_month_all!V9)</f>
+        <f>IF(_tag1_month_all!X9="","",_tag1_month_all!X9)</f>
         <v/>
       </c>
       <c r="W13" s="17" t="str">
-        <f>IF(_tag1_month_all!W9="","",_tag1_month_all!W9)</f>
+        <f>IF(_tag1_month_all!Y9="","",_tag1_month_all!Y9)</f>
         <v/>
       </c>
       <c r="X13" s="17" t="str">
-        <f>IF(_tag1_month_all!X9="","",_tag1_month_all!X9)</f>
+        <f>IF(_tag1_month_all!Z9="","",_tag1_month_all!Z9)</f>
         <v/>
       </c>
       <c r="Y13" s="17" t="str">
-        <f>IF(_tag1_month_all!Y9="","",_tag1_month_all!Y9)</f>
+        <f>IF(_tag1_month_all!AA9="","",_tag1_month_all!AA9)</f>
         <v/>
       </c>
       <c r="Z13" s="17" t="str">
-        <f>IF(_tag1_month_all!Z9="","",_tag1_month_all!Z9)</f>
+        <f>IF(_tag1_month_all!AB9="","",_tag1_month_all!AB9)</f>
         <v/>
       </c>
       <c r="AA13" s="17" t="str">
-        <f>IF(_tag1_month_all!AA9="","",_tag1_month_all!AA9)</f>
+        <f>IF(_tag1_month_all!AC9="","",_tag1_month_all!AC9)</f>
         <v/>
       </c>
       <c r="AB13" s="17" t="str">
-        <f>IF(_tag1_month_all!AB9="","",_tag1_month_all!AB9)</f>
+        <f>IF(_tag1_month_all!AD9="","",_tag1_month_all!AD9)</f>
         <v/>
       </c>
       <c r="AC13" s="17" t="str">
-        <f>IF(_tag1_month_all!AC9="","",_tag1_month_all!AC9)</f>
+        <f>IF(_tag1_month_all!AE9="","",_tag1_month_all!AE9)</f>
         <v/>
       </c>
       <c r="AD13" s="17" t="str">
-        <f>IF(_tag1_month_all!AD9="","",_tag1_month_all!AD9)</f>
+        <f>IF(_tag1_month_all!AF9="","",_tag1_month_all!AF9)</f>
         <v/>
       </c>
       <c r="AE13" s="17" t="str">
-        <f>IF(_tag1_month_all!AE9="","",_tag1_month_all!AE9)</f>
+        <f>IF(_tag1_month_all!AG9="","",_tag1_month_all!AG9)</f>
         <v/>
       </c>
       <c r="AF13" s="17" t="str">
-        <f>IF(_tag1_month_all!AF9="","",_tag1_month_all!AF9)</f>
+        <f>IF(_tag1_month_all!AH9="","",_tag1_month_all!AH9)</f>
         <v/>
       </c>
       <c r="AG13" s="17" t="str">
-        <f>IF(_tag1_month_all!AG9="","",_tag1_month_all!AG9)</f>
+        <f>IF(_tag1_month_all!AI9="","",_tag1_month_all!AI9)</f>
         <v/>
       </c>
       <c r="AH13" s="17" t="str">
-        <f>IF(_tag1_month_all!AH9="","",_tag1_month_all!AH9)</f>
+        <f>IF(_tag1_month_all!AJ9="","",_tag1_month_all!AJ9)</f>
         <v/>
       </c>
       <c r="AI13" s="17" t="str">
-        <f>IF(_tag1_month_all!AI9="","",_tag1_month_all!AI9)</f>
-        <v/>
-      </c>
-      <c r="AJ13" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ9="","",_tag1_month_all!AJ9)</f>
-        <v/>
-      </c>
-      <c r="AK13" s="17" t="str">
         <f>IF(_tag1_month_all!AK9="","",_tag1_month_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:35">
       <c r="A14" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43594</v>
+        <v>43625</v>
       </c>
       <c r="B14" s="17" t="str">
         <f>IF(_tag1_month_all!D10="","",_tag1_month_all!D10)</f>
@@ -3272,86 +3204,78 @@
         <v/>
       </c>
       <c r="S14" s="17" t="str">
-        <f>IF(_tag1_month_all!S10="","",_tag1_month_all!S10)</f>
+        <f>IF(_tag1_month_all!U10="","",_tag1_month_all!U10)</f>
         <v/>
       </c>
       <c r="T14" s="17" t="str">
-        <f>IF(_tag1_month_all!T10="","",_tag1_month_all!T10)</f>
+        <f>IF(_tag1_month_all!V10="","",_tag1_month_all!V10)</f>
         <v/>
       </c>
       <c r="U14" s="17" t="str">
-        <f>IF(_tag1_month_all!U10="","",_tag1_month_all!U10)</f>
+        <f>IF(_tag1_month_all!W10="","",_tag1_month_all!W10)</f>
         <v/>
       </c>
       <c r="V14" s="17" t="str">
-        <f>IF(_tag1_month_all!V10="","",_tag1_month_all!V10)</f>
+        <f>IF(_tag1_month_all!X10="","",_tag1_month_all!X10)</f>
         <v/>
       </c>
       <c r="W14" s="17" t="str">
-        <f>IF(_tag1_month_all!W10="","",_tag1_month_all!W10)</f>
+        <f>IF(_tag1_month_all!Y10="","",_tag1_month_all!Y10)</f>
         <v/>
       </c>
       <c r="X14" s="17" t="str">
-        <f>IF(_tag1_month_all!X10="","",_tag1_month_all!X10)</f>
+        <f>IF(_tag1_month_all!Z10="","",_tag1_month_all!Z10)</f>
         <v/>
       </c>
       <c r="Y14" s="17" t="str">
-        <f>IF(_tag1_month_all!Y10="","",_tag1_month_all!Y10)</f>
+        <f>IF(_tag1_month_all!AA10="","",_tag1_month_all!AA10)</f>
         <v/>
       </c>
       <c r="Z14" s="17" t="str">
-        <f>IF(_tag1_month_all!Z10="","",_tag1_month_all!Z10)</f>
+        <f>IF(_tag1_month_all!AB10="","",_tag1_month_all!AB10)</f>
         <v/>
       </c>
       <c r="AA14" s="17" t="str">
-        <f>IF(_tag1_month_all!AA10="","",_tag1_month_all!AA10)</f>
+        <f>IF(_tag1_month_all!AC10="","",_tag1_month_all!AC10)</f>
         <v/>
       </c>
       <c r="AB14" s="17" t="str">
-        <f>IF(_tag1_month_all!AB10="","",_tag1_month_all!AB10)</f>
+        <f>IF(_tag1_month_all!AD10="","",_tag1_month_all!AD10)</f>
         <v/>
       </c>
       <c r="AC14" s="17" t="str">
-        <f>IF(_tag1_month_all!AC10="","",_tag1_month_all!AC10)</f>
+        <f>IF(_tag1_month_all!AE10="","",_tag1_month_all!AE10)</f>
         <v/>
       </c>
       <c r="AD14" s="17" t="str">
-        <f>IF(_tag1_month_all!AD10="","",_tag1_month_all!AD10)</f>
+        <f>IF(_tag1_month_all!AF10="","",_tag1_month_all!AF10)</f>
         <v/>
       </c>
       <c r="AE14" s="17" t="str">
-        <f>IF(_tag1_month_all!AE10="","",_tag1_month_all!AE10)</f>
+        <f>IF(_tag1_month_all!AG10="","",_tag1_month_all!AG10)</f>
         <v/>
       </c>
       <c r="AF14" s="17" t="str">
-        <f>IF(_tag1_month_all!AF10="","",_tag1_month_all!AF10)</f>
+        <f>IF(_tag1_month_all!AH10="","",_tag1_month_all!AH10)</f>
         <v/>
       </c>
       <c r="AG14" s="17" t="str">
-        <f>IF(_tag1_month_all!AG10="","",_tag1_month_all!AG10)</f>
+        <f>IF(_tag1_month_all!AI10="","",_tag1_month_all!AI10)</f>
         <v/>
       </c>
       <c r="AH14" s="17" t="str">
-        <f>IF(_tag1_month_all!AH10="","",_tag1_month_all!AH10)</f>
+        <f>IF(_tag1_month_all!AJ10="","",_tag1_month_all!AJ10)</f>
         <v/>
       </c>
       <c r="AI14" s="17" t="str">
-        <f>IF(_tag1_month_all!AI10="","",_tag1_month_all!AI10)</f>
-        <v/>
-      </c>
-      <c r="AJ14" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ10="","",_tag1_month_all!AJ10)</f>
-        <v/>
-      </c>
-      <c r="AK14" s="17" t="str">
         <f>IF(_tag1_month_all!AK10="","",_tag1_month_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:35">
       <c r="A15" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43595</v>
+        <v>43626</v>
       </c>
       <c r="B15" s="17" t="str">
         <f>IF(_tag1_month_all!D11="","",_tag1_month_all!D11)</f>
@@ -3422,86 +3346,78 @@
         <v/>
       </c>
       <c r="S15" s="17" t="str">
-        <f>IF(_tag1_month_all!S11="","",_tag1_month_all!S11)</f>
+        <f>IF(_tag1_month_all!U11="","",_tag1_month_all!U11)</f>
         <v/>
       </c>
       <c r="T15" s="17" t="str">
-        <f>IF(_tag1_month_all!T11="","",_tag1_month_all!T11)</f>
+        <f>IF(_tag1_month_all!V11="","",_tag1_month_all!V11)</f>
         <v/>
       </c>
       <c r="U15" s="17" t="str">
-        <f>IF(_tag1_month_all!U11="","",_tag1_month_all!U11)</f>
+        <f>IF(_tag1_month_all!W11="","",_tag1_month_all!W11)</f>
         <v/>
       </c>
       <c r="V15" s="17" t="str">
-        <f>IF(_tag1_month_all!V11="","",_tag1_month_all!V11)</f>
+        <f>IF(_tag1_month_all!X11="","",_tag1_month_all!X11)</f>
         <v/>
       </c>
       <c r="W15" s="17" t="str">
-        <f>IF(_tag1_month_all!W11="","",_tag1_month_all!W11)</f>
+        <f>IF(_tag1_month_all!Y11="","",_tag1_month_all!Y11)</f>
         <v/>
       </c>
       <c r="X15" s="17" t="str">
-        <f>IF(_tag1_month_all!X11="","",_tag1_month_all!X11)</f>
+        <f>IF(_tag1_month_all!Z11="","",_tag1_month_all!Z11)</f>
         <v/>
       </c>
       <c r="Y15" s="17" t="str">
-        <f>IF(_tag1_month_all!Y11="","",_tag1_month_all!Y11)</f>
+        <f>IF(_tag1_month_all!AA11="","",_tag1_month_all!AA11)</f>
         <v/>
       </c>
       <c r="Z15" s="17" t="str">
-        <f>IF(_tag1_month_all!Z11="","",_tag1_month_all!Z11)</f>
+        <f>IF(_tag1_month_all!AB11="","",_tag1_month_all!AB11)</f>
         <v/>
       </c>
       <c r="AA15" s="17" t="str">
-        <f>IF(_tag1_month_all!AA11="","",_tag1_month_all!AA11)</f>
+        <f>IF(_tag1_month_all!AC11="","",_tag1_month_all!AC11)</f>
         <v/>
       </c>
       <c r="AB15" s="17" t="str">
-        <f>IF(_tag1_month_all!AB11="","",_tag1_month_all!AB11)</f>
+        <f>IF(_tag1_month_all!AD11="","",_tag1_month_all!AD11)</f>
         <v/>
       </c>
       <c r="AC15" s="17" t="str">
-        <f>IF(_tag1_month_all!AC11="","",_tag1_month_all!AC11)</f>
+        <f>IF(_tag1_month_all!AE11="","",_tag1_month_all!AE11)</f>
         <v/>
       </c>
       <c r="AD15" s="17" t="str">
-        <f>IF(_tag1_month_all!AD11="","",_tag1_month_all!AD11)</f>
+        <f>IF(_tag1_month_all!AF11="","",_tag1_month_all!AF11)</f>
         <v/>
       </c>
       <c r="AE15" s="17" t="str">
-        <f>IF(_tag1_month_all!AE11="","",_tag1_month_all!AE11)</f>
+        <f>IF(_tag1_month_all!AG11="","",_tag1_month_all!AG11)</f>
         <v/>
       </c>
       <c r="AF15" s="17" t="str">
-        <f>IF(_tag1_month_all!AF11="","",_tag1_month_all!AF11)</f>
+        <f>IF(_tag1_month_all!AH11="","",_tag1_month_all!AH11)</f>
         <v/>
       </c>
       <c r="AG15" s="17" t="str">
-        <f>IF(_tag1_month_all!AG11="","",_tag1_month_all!AG11)</f>
+        <f>IF(_tag1_month_all!AI11="","",_tag1_month_all!AI11)</f>
         <v/>
       </c>
       <c r="AH15" s="17" t="str">
-        <f>IF(_tag1_month_all!AH11="","",_tag1_month_all!AH11)</f>
+        <f>IF(_tag1_month_all!AJ11="","",_tag1_month_all!AJ11)</f>
         <v/>
       </c>
       <c r="AI15" s="17" t="str">
-        <f>IF(_tag1_month_all!AI11="","",_tag1_month_all!AI11)</f>
-        <v/>
-      </c>
-      <c r="AJ15" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ11="","",_tag1_month_all!AJ11)</f>
-        <v/>
-      </c>
-      <c r="AK15" s="17" t="str">
         <f>IF(_tag1_month_all!AK11="","",_tag1_month_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:35">
       <c r="A16" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43596</v>
+        <v>43627</v>
       </c>
       <c r="B16" s="17" t="str">
         <f>IF(_tag1_month_all!D12="","",_tag1_month_all!D12)</f>
@@ -3572,86 +3488,78 @@
         <v/>
       </c>
       <c r="S16" s="17" t="str">
-        <f>IF(_tag1_month_all!S12="","",_tag1_month_all!S12)</f>
+        <f>IF(_tag1_month_all!U12="","",_tag1_month_all!U12)</f>
         <v/>
       </c>
       <c r="T16" s="17" t="str">
-        <f>IF(_tag1_month_all!T12="","",_tag1_month_all!T12)</f>
+        <f>IF(_tag1_month_all!V12="","",_tag1_month_all!V12)</f>
         <v/>
       </c>
       <c r="U16" s="17" t="str">
-        <f>IF(_tag1_month_all!U12="","",_tag1_month_all!U12)</f>
+        <f>IF(_tag1_month_all!W12="","",_tag1_month_all!W12)</f>
         <v/>
       </c>
       <c r="V16" s="17" t="str">
-        <f>IF(_tag1_month_all!V12="","",_tag1_month_all!V12)</f>
+        <f>IF(_tag1_month_all!X12="","",_tag1_month_all!X12)</f>
         <v/>
       </c>
       <c r="W16" s="17" t="str">
-        <f>IF(_tag1_month_all!W12="","",_tag1_month_all!W12)</f>
+        <f>IF(_tag1_month_all!Y12="","",_tag1_month_all!Y12)</f>
         <v/>
       </c>
       <c r="X16" s="17" t="str">
-        <f>IF(_tag1_month_all!X12="","",_tag1_month_all!X12)</f>
+        <f>IF(_tag1_month_all!Z12="","",_tag1_month_all!Z12)</f>
         <v/>
       </c>
       <c r="Y16" s="17" t="str">
-        <f>IF(_tag1_month_all!Y12="","",_tag1_month_all!Y12)</f>
+        <f>IF(_tag1_month_all!AA12="","",_tag1_month_all!AA12)</f>
         <v/>
       </c>
       <c r="Z16" s="17" t="str">
-        <f>IF(_tag1_month_all!Z12="","",_tag1_month_all!Z12)</f>
+        <f>IF(_tag1_month_all!AB12="","",_tag1_month_all!AB12)</f>
         <v/>
       </c>
       <c r="AA16" s="17" t="str">
-        <f>IF(_tag1_month_all!AA12="","",_tag1_month_all!AA12)</f>
+        <f>IF(_tag1_month_all!AC12="","",_tag1_month_all!AC12)</f>
         <v/>
       </c>
       <c r="AB16" s="17" t="str">
-        <f>IF(_tag1_month_all!AB12="","",_tag1_month_all!AB12)</f>
+        <f>IF(_tag1_month_all!AD12="","",_tag1_month_all!AD12)</f>
         <v/>
       </c>
       <c r="AC16" s="17" t="str">
-        <f>IF(_tag1_month_all!AC12="","",_tag1_month_all!AC12)</f>
+        <f>IF(_tag1_month_all!AE12="","",_tag1_month_all!AE12)</f>
         <v/>
       </c>
       <c r="AD16" s="17" t="str">
-        <f>IF(_tag1_month_all!AD12="","",_tag1_month_all!AD12)</f>
+        <f>IF(_tag1_month_all!AF12="","",_tag1_month_all!AF12)</f>
         <v/>
       </c>
       <c r="AE16" s="17" t="str">
-        <f>IF(_tag1_month_all!AE12="","",_tag1_month_all!AE12)</f>
+        <f>IF(_tag1_month_all!AG12="","",_tag1_month_all!AG12)</f>
         <v/>
       </c>
       <c r="AF16" s="17" t="str">
-        <f>IF(_tag1_month_all!AF12="","",_tag1_month_all!AF12)</f>
+        <f>IF(_tag1_month_all!AH12="","",_tag1_month_all!AH12)</f>
         <v/>
       </c>
       <c r="AG16" s="17" t="str">
-        <f>IF(_tag1_month_all!AG12="","",_tag1_month_all!AG12)</f>
+        <f>IF(_tag1_month_all!AI12="","",_tag1_month_all!AI12)</f>
         <v/>
       </c>
       <c r="AH16" s="17" t="str">
-        <f>IF(_tag1_month_all!AH12="","",_tag1_month_all!AH12)</f>
+        <f>IF(_tag1_month_all!AJ12="","",_tag1_month_all!AJ12)</f>
         <v/>
       </c>
       <c r="AI16" s="17" t="str">
-        <f>IF(_tag1_month_all!AI12="","",_tag1_month_all!AI12)</f>
-        <v/>
-      </c>
-      <c r="AJ16" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ12="","",_tag1_month_all!AJ12)</f>
-        <v/>
-      </c>
-      <c r="AK16" s="17" t="str">
         <f>IF(_tag1_month_all!AK12="","",_tag1_month_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:35">
       <c r="A17" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43597</v>
+        <v>43628</v>
       </c>
       <c r="B17" s="17" t="str">
         <f>IF(_tag1_month_all!D13="","",_tag1_month_all!D13)</f>
@@ -3722,86 +3630,78 @@
         <v/>
       </c>
       <c r="S17" s="17" t="str">
-        <f>IF(_tag1_month_all!S13="","",_tag1_month_all!S13)</f>
+        <f>IF(_tag1_month_all!U13="","",_tag1_month_all!U13)</f>
         <v/>
       </c>
       <c r="T17" s="17" t="str">
-        <f>IF(_tag1_month_all!T13="","",_tag1_month_all!T13)</f>
+        <f>IF(_tag1_month_all!V13="","",_tag1_month_all!V13)</f>
         <v/>
       </c>
       <c r="U17" s="17" t="str">
-        <f>IF(_tag1_month_all!U13="","",_tag1_month_all!U13)</f>
+        <f>IF(_tag1_month_all!W13="","",_tag1_month_all!W13)</f>
         <v/>
       </c>
       <c r="V17" s="17" t="str">
-        <f>IF(_tag1_month_all!V13="","",_tag1_month_all!V13)</f>
+        <f>IF(_tag1_month_all!X13="","",_tag1_month_all!X13)</f>
         <v/>
       </c>
       <c r="W17" s="17" t="str">
-        <f>IF(_tag1_month_all!W13="","",_tag1_month_all!W13)</f>
+        <f>IF(_tag1_month_all!Y13="","",_tag1_month_all!Y13)</f>
         <v/>
       </c>
       <c r="X17" s="17" t="str">
-        <f>IF(_tag1_month_all!X13="","",_tag1_month_all!X13)</f>
+        <f>IF(_tag1_month_all!Z13="","",_tag1_month_all!Z13)</f>
         <v/>
       </c>
       <c r="Y17" s="17" t="str">
-        <f>IF(_tag1_month_all!Y13="","",_tag1_month_all!Y13)</f>
+        <f>IF(_tag1_month_all!AA13="","",_tag1_month_all!AA13)</f>
         <v/>
       </c>
       <c r="Z17" s="17" t="str">
-        <f>IF(_tag1_month_all!Z13="","",_tag1_month_all!Z13)</f>
+        <f>IF(_tag1_month_all!AB13="","",_tag1_month_all!AB13)</f>
         <v/>
       </c>
       <c r="AA17" s="17" t="str">
-        <f>IF(_tag1_month_all!AA13="","",_tag1_month_all!AA13)</f>
+        <f>IF(_tag1_month_all!AC13="","",_tag1_month_all!AC13)</f>
         <v/>
       </c>
       <c r="AB17" s="17" t="str">
-        <f>IF(_tag1_month_all!AB13="","",_tag1_month_all!AB13)</f>
+        <f>IF(_tag1_month_all!AD13="","",_tag1_month_all!AD13)</f>
         <v/>
       </c>
       <c r="AC17" s="17" t="str">
-        <f>IF(_tag1_month_all!AC13="","",_tag1_month_all!AC13)</f>
+        <f>IF(_tag1_month_all!AE13="","",_tag1_month_all!AE13)</f>
         <v/>
       </c>
       <c r="AD17" s="17" t="str">
-        <f>IF(_tag1_month_all!AD13="","",_tag1_month_all!AD13)</f>
+        <f>IF(_tag1_month_all!AF13="","",_tag1_month_all!AF13)</f>
         <v/>
       </c>
       <c r="AE17" s="17" t="str">
-        <f>IF(_tag1_month_all!AE13="","",_tag1_month_all!AE13)</f>
+        <f>IF(_tag1_month_all!AG13="","",_tag1_month_all!AG13)</f>
         <v/>
       </c>
       <c r="AF17" s="17" t="str">
-        <f>IF(_tag1_month_all!AF13="","",_tag1_month_all!AF13)</f>
+        <f>IF(_tag1_month_all!AH13="","",_tag1_month_all!AH13)</f>
         <v/>
       </c>
       <c r="AG17" s="17" t="str">
-        <f>IF(_tag1_month_all!AG13="","",_tag1_month_all!AG13)</f>
+        <f>IF(_tag1_month_all!AI13="","",_tag1_month_all!AI13)</f>
         <v/>
       </c>
       <c r="AH17" s="17" t="str">
-        <f>IF(_tag1_month_all!AH13="","",_tag1_month_all!AH13)</f>
+        <f>IF(_tag1_month_all!AJ13="","",_tag1_month_all!AJ13)</f>
         <v/>
       </c>
       <c r="AI17" s="17" t="str">
-        <f>IF(_tag1_month_all!AI13="","",_tag1_month_all!AI13)</f>
-        <v/>
-      </c>
-      <c r="AJ17" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ13="","",_tag1_month_all!AJ13)</f>
-        <v/>
-      </c>
-      <c r="AK17" s="17" t="str">
         <f>IF(_tag1_month_all!AK13="","",_tag1_month_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:35">
       <c r="A18" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43598</v>
+        <v>43629</v>
       </c>
       <c r="B18" s="17" t="str">
         <f>IF(_tag1_month_all!D14="","",_tag1_month_all!D14)</f>
@@ -3872,86 +3772,78 @@
         <v/>
       </c>
       <c r="S18" s="17" t="str">
-        <f>IF(_tag1_month_all!S14="","",_tag1_month_all!S14)</f>
+        <f>IF(_tag1_month_all!U14="","",_tag1_month_all!U14)</f>
         <v/>
       </c>
       <c r="T18" s="17" t="str">
-        <f>IF(_tag1_month_all!T14="","",_tag1_month_all!T14)</f>
+        <f>IF(_tag1_month_all!V14="","",_tag1_month_all!V14)</f>
         <v/>
       </c>
       <c r="U18" s="17" t="str">
-        <f>IF(_tag1_month_all!U14="","",_tag1_month_all!U14)</f>
+        <f>IF(_tag1_month_all!W14="","",_tag1_month_all!W14)</f>
         <v/>
       </c>
       <c r="V18" s="17" t="str">
-        <f>IF(_tag1_month_all!V14="","",_tag1_month_all!V14)</f>
+        <f>IF(_tag1_month_all!X14="","",_tag1_month_all!X14)</f>
         <v/>
       </c>
       <c r="W18" s="17" t="str">
-        <f>IF(_tag1_month_all!W14="","",_tag1_month_all!W14)</f>
+        <f>IF(_tag1_month_all!Y14="","",_tag1_month_all!Y14)</f>
         <v/>
       </c>
       <c r="X18" s="17" t="str">
-        <f>IF(_tag1_month_all!X14="","",_tag1_month_all!X14)</f>
+        <f>IF(_tag1_month_all!Z14="","",_tag1_month_all!Z14)</f>
         <v/>
       </c>
       <c r="Y18" s="17" t="str">
-        <f>IF(_tag1_month_all!Y14="","",_tag1_month_all!Y14)</f>
+        <f>IF(_tag1_month_all!AA14="","",_tag1_month_all!AA14)</f>
         <v/>
       </c>
       <c r="Z18" s="17" t="str">
-        <f>IF(_tag1_month_all!Z14="","",_tag1_month_all!Z14)</f>
+        <f>IF(_tag1_month_all!AB14="","",_tag1_month_all!AB14)</f>
         <v/>
       </c>
       <c r="AA18" s="17" t="str">
-        <f>IF(_tag1_month_all!AA14="","",_tag1_month_all!AA14)</f>
+        <f>IF(_tag1_month_all!AC14="","",_tag1_month_all!AC14)</f>
         <v/>
       </c>
       <c r="AB18" s="17" t="str">
-        <f>IF(_tag1_month_all!AB14="","",_tag1_month_all!AB14)</f>
+        <f>IF(_tag1_month_all!AD14="","",_tag1_month_all!AD14)</f>
         <v/>
       </c>
       <c r="AC18" s="17" t="str">
-        <f>IF(_tag1_month_all!AC14="","",_tag1_month_all!AC14)</f>
+        <f>IF(_tag1_month_all!AE14="","",_tag1_month_all!AE14)</f>
         <v/>
       </c>
       <c r="AD18" s="17" t="str">
-        <f>IF(_tag1_month_all!AD14="","",_tag1_month_all!AD14)</f>
+        <f>IF(_tag1_month_all!AF14="","",_tag1_month_all!AF14)</f>
         <v/>
       </c>
       <c r="AE18" s="17" t="str">
-        <f>IF(_tag1_month_all!AE14="","",_tag1_month_all!AE14)</f>
+        <f>IF(_tag1_month_all!AG14="","",_tag1_month_all!AG14)</f>
         <v/>
       </c>
       <c r="AF18" s="17" t="str">
-        <f>IF(_tag1_month_all!AF14="","",_tag1_month_all!AF14)</f>
+        <f>IF(_tag1_month_all!AH14="","",_tag1_month_all!AH14)</f>
         <v/>
       </c>
       <c r="AG18" s="17" t="str">
-        <f>IF(_tag1_month_all!AG14="","",_tag1_month_all!AG14)</f>
+        <f>IF(_tag1_month_all!AI14="","",_tag1_month_all!AI14)</f>
         <v/>
       </c>
       <c r="AH18" s="17" t="str">
-        <f>IF(_tag1_month_all!AH14="","",_tag1_month_all!AH14)</f>
+        <f>IF(_tag1_month_all!AJ14="","",_tag1_month_all!AJ14)</f>
         <v/>
       </c>
       <c r="AI18" s="17" t="str">
-        <f>IF(_tag1_month_all!AI14="","",_tag1_month_all!AI14)</f>
-        <v/>
-      </c>
-      <c r="AJ18" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ14="","",_tag1_month_all!AJ14)</f>
-        <v/>
-      </c>
-      <c r="AK18" s="17" t="str">
         <f>IF(_tag1_month_all!AK14="","",_tag1_month_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:35">
       <c r="A19" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43599</v>
+        <v>43630</v>
       </c>
       <c r="B19" s="17" t="str">
         <f>IF(_tag1_month_all!D15="","",_tag1_month_all!D15)</f>
@@ -4022,86 +3914,78 @@
         <v/>
       </c>
       <c r="S19" s="17" t="str">
-        <f>IF(_tag1_month_all!S15="","",_tag1_month_all!S15)</f>
+        <f>IF(_tag1_month_all!U15="","",_tag1_month_all!U15)</f>
         <v/>
       </c>
       <c r="T19" s="17" t="str">
-        <f>IF(_tag1_month_all!T15="","",_tag1_month_all!T15)</f>
+        <f>IF(_tag1_month_all!V15="","",_tag1_month_all!V15)</f>
         <v/>
       </c>
       <c r="U19" s="17" t="str">
-        <f>IF(_tag1_month_all!U15="","",_tag1_month_all!U15)</f>
+        <f>IF(_tag1_month_all!W15="","",_tag1_month_all!W15)</f>
         <v/>
       </c>
       <c r="V19" s="17" t="str">
-        <f>IF(_tag1_month_all!V15="","",_tag1_month_all!V15)</f>
+        <f>IF(_tag1_month_all!X15="","",_tag1_month_all!X15)</f>
         <v/>
       </c>
       <c r="W19" s="17" t="str">
-        <f>IF(_tag1_month_all!W15="","",_tag1_month_all!W15)</f>
+        <f>IF(_tag1_month_all!Y15="","",_tag1_month_all!Y15)</f>
         <v/>
       </c>
       <c r="X19" s="17" t="str">
-        <f>IF(_tag1_month_all!X15="","",_tag1_month_all!X15)</f>
+        <f>IF(_tag1_month_all!Z15="","",_tag1_month_all!Z15)</f>
         <v/>
       </c>
       <c r="Y19" s="17" t="str">
-        <f>IF(_tag1_month_all!Y15="","",_tag1_month_all!Y15)</f>
+        <f>IF(_tag1_month_all!AA15="","",_tag1_month_all!AA15)</f>
         <v/>
       </c>
       <c r="Z19" s="17" t="str">
-        <f>IF(_tag1_month_all!Z15="","",_tag1_month_all!Z15)</f>
+        <f>IF(_tag1_month_all!AB15="","",_tag1_month_all!AB15)</f>
         <v/>
       </c>
       <c r="AA19" s="17" t="str">
-        <f>IF(_tag1_month_all!AA15="","",_tag1_month_all!AA15)</f>
+        <f>IF(_tag1_month_all!AC15="","",_tag1_month_all!AC15)</f>
         <v/>
       </c>
       <c r="AB19" s="17" t="str">
-        <f>IF(_tag1_month_all!AB15="","",_tag1_month_all!AB15)</f>
+        <f>IF(_tag1_month_all!AD15="","",_tag1_month_all!AD15)</f>
         <v/>
       </c>
       <c r="AC19" s="17" t="str">
-        <f>IF(_tag1_month_all!AC15="","",_tag1_month_all!AC15)</f>
+        <f>IF(_tag1_month_all!AE15="","",_tag1_month_all!AE15)</f>
         <v/>
       </c>
       <c r="AD19" s="17" t="str">
-        <f>IF(_tag1_month_all!AD15="","",_tag1_month_all!AD15)</f>
+        <f>IF(_tag1_month_all!AF15="","",_tag1_month_all!AF15)</f>
         <v/>
       </c>
       <c r="AE19" s="17" t="str">
-        <f>IF(_tag1_month_all!AE15="","",_tag1_month_all!AE15)</f>
+        <f>IF(_tag1_month_all!AG15="","",_tag1_month_all!AG15)</f>
         <v/>
       </c>
       <c r="AF19" s="17" t="str">
-        <f>IF(_tag1_month_all!AF15="","",_tag1_month_all!AF15)</f>
+        <f>IF(_tag1_month_all!AH15="","",_tag1_month_all!AH15)</f>
         <v/>
       </c>
       <c r="AG19" s="17" t="str">
-        <f>IF(_tag1_month_all!AG15="","",_tag1_month_all!AG15)</f>
+        <f>IF(_tag1_month_all!AI15="","",_tag1_month_all!AI15)</f>
         <v/>
       </c>
       <c r="AH19" s="17" t="str">
-        <f>IF(_tag1_month_all!AH15="","",_tag1_month_all!AH15)</f>
+        <f>IF(_tag1_month_all!AJ15="","",_tag1_month_all!AJ15)</f>
         <v/>
       </c>
       <c r="AI19" s="17" t="str">
-        <f>IF(_tag1_month_all!AI15="","",_tag1_month_all!AI15)</f>
-        <v/>
-      </c>
-      <c r="AJ19" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ15="","",_tag1_month_all!AJ15)</f>
-        <v/>
-      </c>
-      <c r="AK19" s="17" t="str">
         <f>IF(_tag1_month_all!AK15="","",_tag1_month_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:35">
       <c r="A20" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43600</v>
+        <v>43631</v>
       </c>
       <c r="B20" s="17" t="str">
         <f>IF(_tag1_month_all!D16="","",_tag1_month_all!D16)</f>
@@ -4172,86 +4056,78 @@
         <v/>
       </c>
       <c r="S20" s="17" t="str">
-        <f>IF(_tag1_month_all!S16="","",_tag1_month_all!S16)</f>
+        <f>IF(_tag1_month_all!U16="","",_tag1_month_all!U16)</f>
         <v/>
       </c>
       <c r="T20" s="17" t="str">
-        <f>IF(_tag1_month_all!T16="","",_tag1_month_all!T16)</f>
+        <f>IF(_tag1_month_all!V16="","",_tag1_month_all!V16)</f>
         <v/>
       </c>
       <c r="U20" s="17" t="str">
-        <f>IF(_tag1_month_all!U16="","",_tag1_month_all!U16)</f>
+        <f>IF(_tag1_month_all!W16="","",_tag1_month_all!W16)</f>
         <v/>
       </c>
       <c r="V20" s="17" t="str">
-        <f>IF(_tag1_month_all!V16="","",_tag1_month_all!V16)</f>
+        <f>IF(_tag1_month_all!X16="","",_tag1_month_all!X16)</f>
         <v/>
       </c>
       <c r="W20" s="17" t="str">
-        <f>IF(_tag1_month_all!W16="","",_tag1_month_all!W16)</f>
+        <f>IF(_tag1_month_all!Y16="","",_tag1_month_all!Y16)</f>
         <v/>
       </c>
       <c r="X20" s="17" t="str">
-        <f>IF(_tag1_month_all!X16="","",_tag1_month_all!X16)</f>
+        <f>IF(_tag1_month_all!Z16="","",_tag1_month_all!Z16)</f>
         <v/>
       </c>
       <c r="Y20" s="17" t="str">
-        <f>IF(_tag1_month_all!Y16="","",_tag1_month_all!Y16)</f>
+        <f>IF(_tag1_month_all!AA16="","",_tag1_month_all!AA16)</f>
         <v/>
       </c>
       <c r="Z20" s="17" t="str">
-        <f>IF(_tag1_month_all!Z16="","",_tag1_month_all!Z16)</f>
+        <f>IF(_tag1_month_all!AB16="","",_tag1_month_all!AB16)</f>
         <v/>
       </c>
       <c r="AA20" s="17" t="str">
-        <f>IF(_tag1_month_all!AA16="","",_tag1_month_all!AA16)</f>
+        <f>IF(_tag1_month_all!AC16="","",_tag1_month_all!AC16)</f>
         <v/>
       </c>
       <c r="AB20" s="17" t="str">
-        <f>IF(_tag1_month_all!AB16="","",_tag1_month_all!AB16)</f>
+        <f>IF(_tag1_month_all!AD16="","",_tag1_month_all!AD16)</f>
         <v/>
       </c>
       <c r="AC20" s="17" t="str">
-        <f>IF(_tag1_month_all!AC16="","",_tag1_month_all!AC16)</f>
+        <f>IF(_tag1_month_all!AE16="","",_tag1_month_all!AE16)</f>
         <v/>
       </c>
       <c r="AD20" s="17" t="str">
-        <f>IF(_tag1_month_all!AD16="","",_tag1_month_all!AD16)</f>
+        <f>IF(_tag1_month_all!AF16="","",_tag1_month_all!AF16)</f>
         <v/>
       </c>
       <c r="AE20" s="17" t="str">
-        <f>IF(_tag1_month_all!AE16="","",_tag1_month_all!AE16)</f>
+        <f>IF(_tag1_month_all!AG16="","",_tag1_month_all!AG16)</f>
         <v/>
       </c>
       <c r="AF20" s="17" t="str">
-        <f>IF(_tag1_month_all!AF16="","",_tag1_month_all!AF16)</f>
+        <f>IF(_tag1_month_all!AH16="","",_tag1_month_all!AH16)</f>
         <v/>
       </c>
       <c r="AG20" s="17" t="str">
-        <f>IF(_tag1_month_all!AG16="","",_tag1_month_all!AG16)</f>
+        <f>IF(_tag1_month_all!AI16="","",_tag1_month_all!AI16)</f>
         <v/>
       </c>
       <c r="AH20" s="17" t="str">
-        <f>IF(_tag1_month_all!AH16="","",_tag1_month_all!AH16)</f>
+        <f>IF(_tag1_month_all!AJ16="","",_tag1_month_all!AJ16)</f>
         <v/>
       </c>
       <c r="AI20" s="17" t="str">
-        <f>IF(_tag1_month_all!AI16="","",_tag1_month_all!AI16)</f>
-        <v/>
-      </c>
-      <c r="AJ20" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ16="","",_tag1_month_all!AJ16)</f>
-        <v/>
-      </c>
-      <c r="AK20" s="17" t="str">
         <f>IF(_tag1_month_all!AK16="","",_tag1_month_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:35">
       <c r="A21" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43601</v>
+        <v>43632</v>
       </c>
       <c r="B21" s="17" t="str">
         <f>IF(_tag1_month_all!D17="","",_tag1_month_all!D17)</f>
@@ -4322,86 +4198,78 @@
         <v/>
       </c>
       <c r="S21" s="17" t="str">
-        <f>IF(_tag1_month_all!S17="","",_tag1_month_all!S17)</f>
+        <f>IF(_tag1_month_all!U17="","",_tag1_month_all!U17)</f>
         <v/>
       </c>
       <c r="T21" s="17" t="str">
-        <f>IF(_tag1_month_all!T17="","",_tag1_month_all!T17)</f>
+        <f>IF(_tag1_month_all!V17="","",_tag1_month_all!V17)</f>
         <v/>
       </c>
       <c r="U21" s="17" t="str">
-        <f>IF(_tag1_month_all!U17="","",_tag1_month_all!U17)</f>
+        <f>IF(_tag1_month_all!W17="","",_tag1_month_all!W17)</f>
         <v/>
       </c>
       <c r="V21" s="17" t="str">
-        <f>IF(_tag1_month_all!V17="","",_tag1_month_all!V17)</f>
+        <f>IF(_tag1_month_all!X17="","",_tag1_month_all!X17)</f>
         <v/>
       </c>
       <c r="W21" s="17" t="str">
-        <f>IF(_tag1_month_all!W17="","",_tag1_month_all!W17)</f>
+        <f>IF(_tag1_month_all!Y17="","",_tag1_month_all!Y17)</f>
         <v/>
       </c>
       <c r="X21" s="17" t="str">
-        <f>IF(_tag1_month_all!X17="","",_tag1_month_all!X17)</f>
+        <f>IF(_tag1_month_all!Z17="","",_tag1_month_all!Z17)</f>
         <v/>
       </c>
       <c r="Y21" s="17" t="str">
-        <f>IF(_tag1_month_all!Y17="","",_tag1_month_all!Y17)</f>
+        <f>IF(_tag1_month_all!AA17="","",_tag1_month_all!AA17)</f>
         <v/>
       </c>
       <c r="Z21" s="17" t="str">
-        <f>IF(_tag1_month_all!Z17="","",_tag1_month_all!Z17)</f>
+        <f>IF(_tag1_month_all!AB17="","",_tag1_month_all!AB17)</f>
         <v/>
       </c>
       <c r="AA21" s="17" t="str">
-        <f>IF(_tag1_month_all!AA17="","",_tag1_month_all!AA17)</f>
+        <f>IF(_tag1_month_all!AC17="","",_tag1_month_all!AC17)</f>
         <v/>
       </c>
       <c r="AB21" s="17" t="str">
-        <f>IF(_tag1_month_all!AB17="","",_tag1_month_all!AB17)</f>
+        <f>IF(_tag1_month_all!AD17="","",_tag1_month_all!AD17)</f>
         <v/>
       </c>
       <c r="AC21" s="17" t="str">
-        <f>IF(_tag1_month_all!AC17="","",_tag1_month_all!AC17)</f>
+        <f>IF(_tag1_month_all!AE17="","",_tag1_month_all!AE17)</f>
         <v/>
       </c>
       <c r="AD21" s="17" t="str">
-        <f>IF(_tag1_month_all!AD17="","",_tag1_month_all!AD17)</f>
+        <f>IF(_tag1_month_all!AF17="","",_tag1_month_all!AF17)</f>
         <v/>
       </c>
       <c r="AE21" s="17" t="str">
-        <f>IF(_tag1_month_all!AE17="","",_tag1_month_all!AE17)</f>
+        <f>IF(_tag1_month_all!AG17="","",_tag1_month_all!AG17)</f>
         <v/>
       </c>
       <c r="AF21" s="17" t="str">
-        <f>IF(_tag1_month_all!AF17="","",_tag1_month_all!AF17)</f>
+        <f>IF(_tag1_month_all!AH17="","",_tag1_month_all!AH17)</f>
         <v/>
       </c>
       <c r="AG21" s="17" t="str">
-        <f>IF(_tag1_month_all!AG17="","",_tag1_month_all!AG17)</f>
+        <f>IF(_tag1_month_all!AI17="","",_tag1_month_all!AI17)</f>
         <v/>
       </c>
       <c r="AH21" s="17" t="str">
-        <f>IF(_tag1_month_all!AH17="","",_tag1_month_all!AH17)</f>
+        <f>IF(_tag1_month_all!AJ17="","",_tag1_month_all!AJ17)</f>
         <v/>
       </c>
       <c r="AI21" s="17" t="str">
-        <f>IF(_tag1_month_all!AI17="","",_tag1_month_all!AI17)</f>
-        <v/>
-      </c>
-      <c r="AJ21" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ17="","",_tag1_month_all!AJ17)</f>
-        <v/>
-      </c>
-      <c r="AK21" s="17" t="str">
         <f>IF(_tag1_month_all!AK17="","",_tag1_month_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:35">
       <c r="A22" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43602</v>
+        <v>43633</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>IF(_tag1_month_all!D18="","",_tag1_month_all!D18)</f>
@@ -4472,86 +4340,78 @@
         <v/>
       </c>
       <c r="S22" s="17" t="str">
-        <f>IF(_tag1_month_all!S18="","",_tag1_month_all!S18)</f>
+        <f>IF(_tag1_month_all!U18="","",_tag1_month_all!U18)</f>
         <v/>
       </c>
       <c r="T22" s="17" t="str">
-        <f>IF(_tag1_month_all!T18="","",_tag1_month_all!T18)</f>
+        <f>IF(_tag1_month_all!V18="","",_tag1_month_all!V18)</f>
         <v/>
       </c>
       <c r="U22" s="17" t="str">
-        <f>IF(_tag1_month_all!U18="","",_tag1_month_all!U18)</f>
+        <f>IF(_tag1_month_all!W18="","",_tag1_month_all!W18)</f>
         <v/>
       </c>
       <c r="V22" s="17" t="str">
-        <f>IF(_tag1_month_all!V18="","",_tag1_month_all!V18)</f>
+        <f>IF(_tag1_month_all!X18="","",_tag1_month_all!X18)</f>
         <v/>
       </c>
       <c r="W22" s="17" t="str">
-        <f>IF(_tag1_month_all!W18="","",_tag1_month_all!W18)</f>
+        <f>IF(_tag1_month_all!Y18="","",_tag1_month_all!Y18)</f>
         <v/>
       </c>
       <c r="X22" s="17" t="str">
-        <f>IF(_tag1_month_all!X18="","",_tag1_month_all!X18)</f>
+        <f>IF(_tag1_month_all!Z18="","",_tag1_month_all!Z18)</f>
         <v/>
       </c>
       <c r="Y22" s="17" t="str">
-        <f>IF(_tag1_month_all!Y18="","",_tag1_month_all!Y18)</f>
+        <f>IF(_tag1_month_all!AA18="","",_tag1_month_all!AA18)</f>
         <v/>
       </c>
       <c r="Z22" s="17" t="str">
-        <f>IF(_tag1_month_all!Z18="","",_tag1_month_all!Z18)</f>
+        <f>IF(_tag1_month_all!AB18="","",_tag1_month_all!AB18)</f>
         <v/>
       </c>
       <c r="AA22" s="17" t="str">
-        <f>IF(_tag1_month_all!AA18="","",_tag1_month_all!AA18)</f>
+        <f>IF(_tag1_month_all!AC18="","",_tag1_month_all!AC18)</f>
         <v/>
       </c>
       <c r="AB22" s="17" t="str">
-        <f>IF(_tag1_month_all!AB18="","",_tag1_month_all!AB18)</f>
+        <f>IF(_tag1_month_all!AD18="","",_tag1_month_all!AD18)</f>
         <v/>
       </c>
       <c r="AC22" s="17" t="str">
-        <f>IF(_tag1_month_all!AC18="","",_tag1_month_all!AC18)</f>
+        <f>IF(_tag1_month_all!AE18="","",_tag1_month_all!AE18)</f>
         <v/>
       </c>
       <c r="AD22" s="17" t="str">
-        <f>IF(_tag1_month_all!AD18="","",_tag1_month_all!AD18)</f>
+        <f>IF(_tag1_month_all!AF18="","",_tag1_month_all!AF18)</f>
         <v/>
       </c>
       <c r="AE22" s="17" t="str">
-        <f>IF(_tag1_month_all!AE18="","",_tag1_month_all!AE18)</f>
+        <f>IF(_tag1_month_all!AG18="","",_tag1_month_all!AG18)</f>
         <v/>
       </c>
       <c r="AF22" s="17" t="str">
-        <f>IF(_tag1_month_all!AF18="","",_tag1_month_all!AF18)</f>
+        <f>IF(_tag1_month_all!AH18="","",_tag1_month_all!AH18)</f>
         <v/>
       </c>
       <c r="AG22" s="17" t="str">
-        <f>IF(_tag1_month_all!AG18="","",_tag1_month_all!AG18)</f>
+        <f>IF(_tag1_month_all!AI18="","",_tag1_month_all!AI18)</f>
         <v/>
       </c>
       <c r="AH22" s="17" t="str">
-        <f>IF(_tag1_month_all!AH18="","",_tag1_month_all!AH18)</f>
+        <f>IF(_tag1_month_all!AJ18="","",_tag1_month_all!AJ18)</f>
         <v/>
       </c>
       <c r="AI22" s="17" t="str">
-        <f>IF(_tag1_month_all!AI18="","",_tag1_month_all!AI18)</f>
-        <v/>
-      </c>
-      <c r="AJ22" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ18="","",_tag1_month_all!AJ18)</f>
-        <v/>
-      </c>
-      <c r="AK22" s="17" t="str">
         <f>IF(_tag1_month_all!AK18="","",_tag1_month_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:35">
       <c r="A23" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43603</v>
+        <v>43634</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>IF(_tag1_month_all!D19="","",_tag1_month_all!D19)</f>
@@ -4622,86 +4482,78 @@
         <v/>
       </c>
       <c r="S23" s="17" t="str">
-        <f>IF(_tag1_month_all!S19="","",_tag1_month_all!S19)</f>
+        <f>IF(_tag1_month_all!U19="","",_tag1_month_all!U19)</f>
         <v/>
       </c>
       <c r="T23" s="17" t="str">
-        <f>IF(_tag1_month_all!T19="","",_tag1_month_all!T19)</f>
+        <f>IF(_tag1_month_all!V19="","",_tag1_month_all!V19)</f>
         <v/>
       </c>
       <c r="U23" s="17" t="str">
-        <f>IF(_tag1_month_all!U19="","",_tag1_month_all!U19)</f>
+        <f>IF(_tag1_month_all!W19="","",_tag1_month_all!W19)</f>
         <v/>
       </c>
       <c r="V23" s="17" t="str">
-        <f>IF(_tag1_month_all!V19="","",_tag1_month_all!V19)</f>
+        <f>IF(_tag1_month_all!X19="","",_tag1_month_all!X19)</f>
         <v/>
       </c>
       <c r="W23" s="17" t="str">
-        <f>IF(_tag1_month_all!W19="","",_tag1_month_all!W19)</f>
+        <f>IF(_tag1_month_all!Y19="","",_tag1_month_all!Y19)</f>
         <v/>
       </c>
       <c r="X23" s="17" t="str">
-        <f>IF(_tag1_month_all!X19="","",_tag1_month_all!X19)</f>
+        <f>IF(_tag1_month_all!Z19="","",_tag1_month_all!Z19)</f>
         <v/>
       </c>
       <c r="Y23" s="17" t="str">
-        <f>IF(_tag1_month_all!Y19="","",_tag1_month_all!Y19)</f>
+        <f>IF(_tag1_month_all!AA19="","",_tag1_month_all!AA19)</f>
         <v/>
       </c>
       <c r="Z23" s="17" t="str">
-        <f>IF(_tag1_month_all!Z19="","",_tag1_month_all!Z19)</f>
+        <f>IF(_tag1_month_all!AB19="","",_tag1_month_all!AB19)</f>
         <v/>
       </c>
       <c r="AA23" s="17" t="str">
-        <f>IF(_tag1_month_all!AA19="","",_tag1_month_all!AA19)</f>
+        <f>IF(_tag1_month_all!AC19="","",_tag1_month_all!AC19)</f>
         <v/>
       </c>
       <c r="AB23" s="17" t="str">
-        <f>IF(_tag1_month_all!AB19="","",_tag1_month_all!AB19)</f>
+        <f>IF(_tag1_month_all!AD19="","",_tag1_month_all!AD19)</f>
         <v/>
       </c>
       <c r="AC23" s="17" t="str">
-        <f>IF(_tag1_month_all!AC19="","",_tag1_month_all!AC19)</f>
+        <f>IF(_tag1_month_all!AE19="","",_tag1_month_all!AE19)</f>
         <v/>
       </c>
       <c r="AD23" s="17" t="str">
-        <f>IF(_tag1_month_all!AD19="","",_tag1_month_all!AD19)</f>
+        <f>IF(_tag1_month_all!AF19="","",_tag1_month_all!AF19)</f>
         <v/>
       </c>
       <c r="AE23" s="17" t="str">
-        <f>IF(_tag1_month_all!AE19="","",_tag1_month_all!AE19)</f>
+        <f>IF(_tag1_month_all!AG19="","",_tag1_month_all!AG19)</f>
         <v/>
       </c>
       <c r="AF23" s="17" t="str">
-        <f>IF(_tag1_month_all!AF19="","",_tag1_month_all!AF19)</f>
+        <f>IF(_tag1_month_all!AH19="","",_tag1_month_all!AH19)</f>
         <v/>
       </c>
       <c r="AG23" s="17" t="str">
-        <f>IF(_tag1_month_all!AG19="","",_tag1_month_all!AG19)</f>
+        <f>IF(_tag1_month_all!AI19="","",_tag1_month_all!AI19)</f>
         <v/>
       </c>
       <c r="AH23" s="17" t="str">
-        <f>IF(_tag1_month_all!AH19="","",_tag1_month_all!AH19)</f>
+        <f>IF(_tag1_month_all!AJ19="","",_tag1_month_all!AJ19)</f>
         <v/>
       </c>
       <c r="AI23" s="17" t="str">
-        <f>IF(_tag1_month_all!AI19="","",_tag1_month_all!AI19)</f>
-        <v/>
-      </c>
-      <c r="AJ23" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ19="","",_tag1_month_all!AJ19)</f>
-        <v/>
-      </c>
-      <c r="AK23" s="17" t="str">
         <f>IF(_tag1_month_all!AK19="","",_tag1_month_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:35">
       <c r="A24" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43604</v>
+        <v>43635</v>
       </c>
       <c r="B24" s="17" t="str">
         <f>IF(_tag1_month_all!D20="","",_tag1_month_all!D20)</f>
@@ -4772,86 +4624,78 @@
         <v/>
       </c>
       <c r="S24" s="17" t="str">
-        <f>IF(_tag1_month_all!S20="","",_tag1_month_all!S20)</f>
+        <f>IF(_tag1_month_all!U20="","",_tag1_month_all!U20)</f>
         <v/>
       </c>
       <c r="T24" s="17" t="str">
-        <f>IF(_tag1_month_all!T20="","",_tag1_month_all!T20)</f>
+        <f>IF(_tag1_month_all!V20="","",_tag1_month_all!V20)</f>
         <v/>
       </c>
       <c r="U24" s="17" t="str">
-        <f>IF(_tag1_month_all!U20="","",_tag1_month_all!U20)</f>
+        <f>IF(_tag1_month_all!W20="","",_tag1_month_all!W20)</f>
         <v/>
       </c>
       <c r="V24" s="17" t="str">
-        <f>IF(_tag1_month_all!V20="","",_tag1_month_all!V20)</f>
+        <f>IF(_tag1_month_all!X20="","",_tag1_month_all!X20)</f>
         <v/>
       </c>
       <c r="W24" s="17" t="str">
-        <f>IF(_tag1_month_all!W20="","",_tag1_month_all!W20)</f>
+        <f>IF(_tag1_month_all!Y20="","",_tag1_month_all!Y20)</f>
         <v/>
       </c>
       <c r="X24" s="17" t="str">
-        <f>IF(_tag1_month_all!X20="","",_tag1_month_all!X20)</f>
+        <f>IF(_tag1_month_all!Z20="","",_tag1_month_all!Z20)</f>
         <v/>
       </c>
       <c r="Y24" s="17" t="str">
-        <f>IF(_tag1_month_all!Y20="","",_tag1_month_all!Y20)</f>
+        <f>IF(_tag1_month_all!AA20="","",_tag1_month_all!AA20)</f>
         <v/>
       </c>
       <c r="Z24" s="17" t="str">
-        <f>IF(_tag1_month_all!Z20="","",_tag1_month_all!Z20)</f>
+        <f>IF(_tag1_month_all!AB20="","",_tag1_month_all!AB20)</f>
         <v/>
       </c>
       <c r="AA24" s="17" t="str">
-        <f>IF(_tag1_month_all!AA20="","",_tag1_month_all!AA20)</f>
+        <f>IF(_tag1_month_all!AC20="","",_tag1_month_all!AC20)</f>
         <v/>
       </c>
       <c r="AB24" s="17" t="str">
-        <f>IF(_tag1_month_all!AB20="","",_tag1_month_all!AB20)</f>
+        <f>IF(_tag1_month_all!AD20="","",_tag1_month_all!AD20)</f>
         <v/>
       </c>
       <c r="AC24" s="17" t="str">
-        <f>IF(_tag1_month_all!AC20="","",_tag1_month_all!AC20)</f>
+        <f>IF(_tag1_month_all!AE20="","",_tag1_month_all!AE20)</f>
         <v/>
       </c>
       <c r="AD24" s="17" t="str">
-        <f>IF(_tag1_month_all!AD20="","",_tag1_month_all!AD20)</f>
+        <f>IF(_tag1_month_all!AF20="","",_tag1_month_all!AF20)</f>
         <v/>
       </c>
       <c r="AE24" s="17" t="str">
-        <f>IF(_tag1_month_all!AE20="","",_tag1_month_all!AE20)</f>
+        <f>IF(_tag1_month_all!AG20="","",_tag1_month_all!AG20)</f>
         <v/>
       </c>
       <c r="AF24" s="17" t="str">
-        <f>IF(_tag1_month_all!AF20="","",_tag1_month_all!AF20)</f>
+        <f>IF(_tag1_month_all!AH20="","",_tag1_month_all!AH20)</f>
         <v/>
       </c>
       <c r="AG24" s="17" t="str">
-        <f>IF(_tag1_month_all!AG20="","",_tag1_month_all!AG20)</f>
+        <f>IF(_tag1_month_all!AI20="","",_tag1_month_all!AI20)</f>
         <v/>
       </c>
       <c r="AH24" s="17" t="str">
-        <f>IF(_tag1_month_all!AH20="","",_tag1_month_all!AH20)</f>
+        <f>IF(_tag1_month_all!AJ20="","",_tag1_month_all!AJ20)</f>
         <v/>
       </c>
       <c r="AI24" s="17" t="str">
-        <f>IF(_tag1_month_all!AI20="","",_tag1_month_all!AI20)</f>
-        <v/>
-      </c>
-      <c r="AJ24" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ20="","",_tag1_month_all!AJ20)</f>
-        <v/>
-      </c>
-      <c r="AK24" s="17" t="str">
         <f>IF(_tag1_month_all!AK20="","",_tag1_month_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:35">
       <c r="A25" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43605</v>
+        <v>43636</v>
       </c>
       <c r="B25" s="17" t="str">
         <f>IF(_tag1_month_all!D21="","",_tag1_month_all!D21)</f>
@@ -4922,86 +4766,78 @@
         <v/>
       </c>
       <c r="S25" s="17" t="str">
-        <f>IF(_tag1_month_all!S21="","",_tag1_month_all!S21)</f>
+        <f>IF(_tag1_month_all!U21="","",_tag1_month_all!U21)</f>
         <v/>
       </c>
       <c r="T25" s="17" t="str">
-        <f>IF(_tag1_month_all!T21="","",_tag1_month_all!T21)</f>
+        <f>IF(_tag1_month_all!V21="","",_tag1_month_all!V21)</f>
         <v/>
       </c>
       <c r="U25" s="17" t="str">
-        <f>IF(_tag1_month_all!U21="","",_tag1_month_all!U21)</f>
+        <f>IF(_tag1_month_all!W21="","",_tag1_month_all!W21)</f>
         <v/>
       </c>
       <c r="V25" s="17" t="str">
-        <f>IF(_tag1_month_all!V21="","",_tag1_month_all!V21)</f>
+        <f>IF(_tag1_month_all!X21="","",_tag1_month_all!X21)</f>
         <v/>
       </c>
       <c r="W25" s="17" t="str">
-        <f>IF(_tag1_month_all!W21="","",_tag1_month_all!W21)</f>
+        <f>IF(_tag1_month_all!Y21="","",_tag1_month_all!Y21)</f>
         <v/>
       </c>
       <c r="X25" s="17" t="str">
-        <f>IF(_tag1_month_all!X21="","",_tag1_month_all!X21)</f>
+        <f>IF(_tag1_month_all!Z21="","",_tag1_month_all!Z21)</f>
         <v/>
       </c>
       <c r="Y25" s="17" t="str">
-        <f>IF(_tag1_month_all!Y21="","",_tag1_month_all!Y21)</f>
+        <f>IF(_tag1_month_all!AA21="","",_tag1_month_all!AA21)</f>
         <v/>
       </c>
       <c r="Z25" s="17" t="str">
-        <f>IF(_tag1_month_all!Z21="","",_tag1_month_all!Z21)</f>
+        <f>IF(_tag1_month_all!AB21="","",_tag1_month_all!AB21)</f>
         <v/>
       </c>
       <c r="AA25" s="17" t="str">
-        <f>IF(_tag1_month_all!AA21="","",_tag1_month_all!AA21)</f>
+        <f>IF(_tag1_month_all!AC21="","",_tag1_month_all!AC21)</f>
         <v/>
       </c>
       <c r="AB25" s="17" t="str">
-        <f>IF(_tag1_month_all!AB21="","",_tag1_month_all!AB21)</f>
+        <f>IF(_tag1_month_all!AD21="","",_tag1_month_all!AD21)</f>
         <v/>
       </c>
       <c r="AC25" s="17" t="str">
-        <f>IF(_tag1_month_all!AC21="","",_tag1_month_all!AC21)</f>
+        <f>IF(_tag1_month_all!AE21="","",_tag1_month_all!AE21)</f>
         <v/>
       </c>
       <c r="AD25" s="17" t="str">
-        <f>IF(_tag1_month_all!AD21="","",_tag1_month_all!AD21)</f>
+        <f>IF(_tag1_month_all!AF21="","",_tag1_month_all!AF21)</f>
         <v/>
       </c>
       <c r="AE25" s="17" t="str">
-        <f>IF(_tag1_month_all!AE21="","",_tag1_month_all!AE21)</f>
+        <f>IF(_tag1_month_all!AG21="","",_tag1_month_all!AG21)</f>
         <v/>
       </c>
       <c r="AF25" s="17" t="str">
-        <f>IF(_tag1_month_all!AF21="","",_tag1_month_all!AF21)</f>
+        <f>IF(_tag1_month_all!AH21="","",_tag1_month_all!AH21)</f>
         <v/>
       </c>
       <c r="AG25" s="17" t="str">
-        <f>IF(_tag1_month_all!AG21="","",_tag1_month_all!AG21)</f>
+        <f>IF(_tag1_month_all!AI21="","",_tag1_month_all!AI21)</f>
         <v/>
       </c>
       <c r="AH25" s="17" t="str">
-        <f>IF(_tag1_month_all!AH21="","",_tag1_month_all!AH21)</f>
+        <f>IF(_tag1_month_all!AJ21="","",_tag1_month_all!AJ21)</f>
         <v/>
       </c>
       <c r="AI25" s="17" t="str">
-        <f>IF(_tag1_month_all!AI21="","",_tag1_month_all!AI21)</f>
-        <v/>
-      </c>
-      <c r="AJ25" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ21="","",_tag1_month_all!AJ21)</f>
-        <v/>
-      </c>
-      <c r="AK25" s="17" t="str">
         <f>IF(_tag1_month_all!AK21="","",_tag1_month_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:35">
       <c r="A26" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43606</v>
+        <v>43637</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(_tag1_month_all!D22="","",_tag1_month_all!D22)</f>
@@ -5072,86 +4908,78 @@
         <v/>
       </c>
       <c r="S26" s="17" t="str">
-        <f>IF(_tag1_month_all!S22="","",_tag1_month_all!S22)</f>
+        <f>IF(_tag1_month_all!U22="","",_tag1_month_all!U22)</f>
         <v/>
       </c>
       <c r="T26" s="17" t="str">
-        <f>IF(_tag1_month_all!T22="","",_tag1_month_all!T22)</f>
+        <f>IF(_tag1_month_all!V22="","",_tag1_month_all!V22)</f>
         <v/>
       </c>
       <c r="U26" s="17" t="str">
-        <f>IF(_tag1_month_all!U22="","",_tag1_month_all!U22)</f>
+        <f>IF(_tag1_month_all!W22="","",_tag1_month_all!W22)</f>
         <v/>
       </c>
       <c r="V26" s="17" t="str">
-        <f>IF(_tag1_month_all!V22="","",_tag1_month_all!V22)</f>
+        <f>IF(_tag1_month_all!X22="","",_tag1_month_all!X22)</f>
         <v/>
       </c>
       <c r="W26" s="17" t="str">
-        <f>IF(_tag1_month_all!W22="","",_tag1_month_all!W22)</f>
+        <f>IF(_tag1_month_all!Y22="","",_tag1_month_all!Y22)</f>
         <v/>
       </c>
       <c r="X26" s="17" t="str">
-        <f>IF(_tag1_month_all!X22="","",_tag1_month_all!X22)</f>
+        <f>IF(_tag1_month_all!Z22="","",_tag1_month_all!Z22)</f>
         <v/>
       </c>
       <c r="Y26" s="17" t="str">
-        <f>IF(_tag1_month_all!Y22="","",_tag1_month_all!Y22)</f>
+        <f>IF(_tag1_month_all!AA22="","",_tag1_month_all!AA22)</f>
         <v/>
       </c>
       <c r="Z26" s="17" t="str">
-        <f>IF(_tag1_month_all!Z22="","",_tag1_month_all!Z22)</f>
+        <f>IF(_tag1_month_all!AB22="","",_tag1_month_all!AB22)</f>
         <v/>
       </c>
       <c r="AA26" s="17" t="str">
-        <f>IF(_tag1_month_all!AA22="","",_tag1_month_all!AA22)</f>
+        <f>IF(_tag1_month_all!AC22="","",_tag1_month_all!AC22)</f>
         <v/>
       </c>
       <c r="AB26" s="17" t="str">
-        <f>IF(_tag1_month_all!AB22="","",_tag1_month_all!AB22)</f>
+        <f>IF(_tag1_month_all!AD22="","",_tag1_month_all!AD22)</f>
         <v/>
       </c>
       <c r="AC26" s="17" t="str">
-        <f>IF(_tag1_month_all!AC22="","",_tag1_month_all!AC22)</f>
+        <f>IF(_tag1_month_all!AE22="","",_tag1_month_all!AE22)</f>
         <v/>
       </c>
       <c r="AD26" s="17" t="str">
-        <f>IF(_tag1_month_all!AD22="","",_tag1_month_all!AD22)</f>
+        <f>IF(_tag1_month_all!AF22="","",_tag1_month_all!AF22)</f>
         <v/>
       </c>
       <c r="AE26" s="17" t="str">
-        <f>IF(_tag1_month_all!AE22="","",_tag1_month_all!AE22)</f>
+        <f>IF(_tag1_month_all!AG22="","",_tag1_month_all!AG22)</f>
         <v/>
       </c>
       <c r="AF26" s="17" t="str">
-        <f>IF(_tag1_month_all!AF22="","",_tag1_month_all!AF22)</f>
+        <f>IF(_tag1_month_all!AH22="","",_tag1_month_all!AH22)</f>
         <v/>
       </c>
       <c r="AG26" s="17" t="str">
-        <f>IF(_tag1_month_all!AG22="","",_tag1_month_all!AG22)</f>
+        <f>IF(_tag1_month_all!AI22="","",_tag1_month_all!AI22)</f>
         <v/>
       </c>
       <c r="AH26" s="17" t="str">
-        <f>IF(_tag1_month_all!AH22="","",_tag1_month_all!AH22)</f>
+        <f>IF(_tag1_month_all!AJ22="","",_tag1_month_all!AJ22)</f>
         <v/>
       </c>
       <c r="AI26" s="17" t="str">
-        <f>IF(_tag1_month_all!AI22="","",_tag1_month_all!AI22)</f>
-        <v/>
-      </c>
-      <c r="AJ26" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ22="","",_tag1_month_all!AJ22)</f>
-        <v/>
-      </c>
-      <c r="AK26" s="17" t="str">
         <f>IF(_tag1_month_all!AK22="","",_tag1_month_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:35">
       <c r="A27" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43607</v>
+        <v>43638</v>
       </c>
       <c r="B27" s="17" t="str">
         <f>IF(_tag1_month_all!D23="","",_tag1_month_all!D23)</f>
@@ -5222,86 +5050,78 @@
         <v/>
       </c>
       <c r="S27" s="17" t="str">
-        <f>IF(_tag1_month_all!S23="","",_tag1_month_all!S23)</f>
+        <f>IF(_tag1_month_all!U23="","",_tag1_month_all!U23)</f>
         <v/>
       </c>
       <c r="T27" s="17" t="str">
-        <f>IF(_tag1_month_all!T23="","",_tag1_month_all!T23)</f>
+        <f>IF(_tag1_month_all!V23="","",_tag1_month_all!V23)</f>
         <v/>
       </c>
       <c r="U27" s="17" t="str">
-        <f>IF(_tag1_month_all!U23="","",_tag1_month_all!U23)</f>
+        <f>IF(_tag1_month_all!W23="","",_tag1_month_all!W23)</f>
         <v/>
       </c>
       <c r="V27" s="17" t="str">
-        <f>IF(_tag1_month_all!V23="","",_tag1_month_all!V23)</f>
+        <f>IF(_tag1_month_all!X23="","",_tag1_month_all!X23)</f>
         <v/>
       </c>
       <c r="W27" s="17" t="str">
-        <f>IF(_tag1_month_all!W23="","",_tag1_month_all!W23)</f>
+        <f>IF(_tag1_month_all!Y23="","",_tag1_month_all!Y23)</f>
         <v/>
       </c>
       <c r="X27" s="17" t="str">
-        <f>IF(_tag1_month_all!X23="","",_tag1_month_all!X23)</f>
+        <f>IF(_tag1_month_all!Z23="","",_tag1_month_all!Z23)</f>
         <v/>
       </c>
       <c r="Y27" s="17" t="str">
-        <f>IF(_tag1_month_all!Y23="","",_tag1_month_all!Y23)</f>
+        <f>IF(_tag1_month_all!AA23="","",_tag1_month_all!AA23)</f>
         <v/>
       </c>
       <c r="Z27" s="17" t="str">
-        <f>IF(_tag1_month_all!Z23="","",_tag1_month_all!Z23)</f>
+        <f>IF(_tag1_month_all!AB23="","",_tag1_month_all!AB23)</f>
         <v/>
       </c>
       <c r="AA27" s="17" t="str">
-        <f>IF(_tag1_month_all!AA23="","",_tag1_month_all!AA23)</f>
+        <f>IF(_tag1_month_all!AC23="","",_tag1_month_all!AC23)</f>
         <v/>
       </c>
       <c r="AB27" s="17" t="str">
-        <f>IF(_tag1_month_all!AB23="","",_tag1_month_all!AB23)</f>
+        <f>IF(_tag1_month_all!AD23="","",_tag1_month_all!AD23)</f>
         <v/>
       </c>
       <c r="AC27" s="17" t="str">
-        <f>IF(_tag1_month_all!AC23="","",_tag1_month_all!AC23)</f>
+        <f>IF(_tag1_month_all!AE23="","",_tag1_month_all!AE23)</f>
         <v/>
       </c>
       <c r="AD27" s="17" t="str">
-        <f>IF(_tag1_month_all!AD23="","",_tag1_month_all!AD23)</f>
+        <f>IF(_tag1_month_all!AF23="","",_tag1_month_all!AF23)</f>
         <v/>
       </c>
       <c r="AE27" s="17" t="str">
-        <f>IF(_tag1_month_all!AE23="","",_tag1_month_all!AE23)</f>
+        <f>IF(_tag1_month_all!AG23="","",_tag1_month_all!AG23)</f>
         <v/>
       </c>
       <c r="AF27" s="17" t="str">
-        <f>IF(_tag1_month_all!AF23="","",_tag1_month_all!AF23)</f>
+        <f>IF(_tag1_month_all!AH23="","",_tag1_month_all!AH23)</f>
         <v/>
       </c>
       <c r="AG27" s="17" t="str">
-        <f>IF(_tag1_month_all!AG23="","",_tag1_month_all!AG23)</f>
+        <f>IF(_tag1_month_all!AI23="","",_tag1_month_all!AI23)</f>
         <v/>
       </c>
       <c r="AH27" s="17" t="str">
-        <f>IF(_tag1_month_all!AH23="","",_tag1_month_all!AH23)</f>
+        <f>IF(_tag1_month_all!AJ23="","",_tag1_month_all!AJ23)</f>
         <v/>
       </c>
       <c r="AI27" s="17" t="str">
-        <f>IF(_tag1_month_all!AI23="","",_tag1_month_all!AI23)</f>
-        <v/>
-      </c>
-      <c r="AJ27" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ23="","",_tag1_month_all!AJ23)</f>
-        <v/>
-      </c>
-      <c r="AK27" s="17" t="str">
         <f>IF(_tag1_month_all!AK23="","",_tag1_month_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:35">
       <c r="A28" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43608</v>
+        <v>43639</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>IF(_tag1_month_all!D24="","",_tag1_month_all!D24)</f>
@@ -5372,86 +5192,78 @@
         <v/>
       </c>
       <c r="S28" s="17" t="str">
-        <f>IF(_tag1_month_all!S24="","",_tag1_month_all!S24)</f>
+        <f>IF(_tag1_month_all!U24="","",_tag1_month_all!U24)</f>
         <v/>
       </c>
       <c r="T28" s="17" t="str">
-        <f>IF(_tag1_month_all!T24="","",_tag1_month_all!T24)</f>
+        <f>IF(_tag1_month_all!V24="","",_tag1_month_all!V24)</f>
         <v/>
       </c>
       <c r="U28" s="17" t="str">
-        <f>IF(_tag1_month_all!U24="","",_tag1_month_all!U24)</f>
+        <f>IF(_tag1_month_all!W24="","",_tag1_month_all!W24)</f>
         <v/>
       </c>
       <c r="V28" s="17" t="str">
-        <f>IF(_tag1_month_all!V24="","",_tag1_month_all!V24)</f>
+        <f>IF(_tag1_month_all!X24="","",_tag1_month_all!X24)</f>
         <v/>
       </c>
       <c r="W28" s="17" t="str">
-        <f>IF(_tag1_month_all!W24="","",_tag1_month_all!W24)</f>
+        <f>IF(_tag1_month_all!Y24="","",_tag1_month_all!Y24)</f>
         <v/>
       </c>
       <c r="X28" s="17" t="str">
-        <f>IF(_tag1_month_all!X24="","",_tag1_month_all!X24)</f>
+        <f>IF(_tag1_month_all!Z24="","",_tag1_month_all!Z24)</f>
         <v/>
       </c>
       <c r="Y28" s="17" t="str">
-        <f>IF(_tag1_month_all!Y24="","",_tag1_month_all!Y24)</f>
+        <f>IF(_tag1_month_all!AA24="","",_tag1_month_all!AA24)</f>
         <v/>
       </c>
       <c r="Z28" s="17" t="str">
-        <f>IF(_tag1_month_all!Z24="","",_tag1_month_all!Z24)</f>
+        <f>IF(_tag1_month_all!AB24="","",_tag1_month_all!AB24)</f>
         <v/>
       </c>
       <c r="AA28" s="17" t="str">
-        <f>IF(_tag1_month_all!AA24="","",_tag1_month_all!AA24)</f>
+        <f>IF(_tag1_month_all!AC24="","",_tag1_month_all!AC24)</f>
         <v/>
       </c>
       <c r="AB28" s="17" t="str">
-        <f>IF(_tag1_month_all!AB24="","",_tag1_month_all!AB24)</f>
+        <f>IF(_tag1_month_all!AD24="","",_tag1_month_all!AD24)</f>
         <v/>
       </c>
       <c r="AC28" s="17" t="str">
-        <f>IF(_tag1_month_all!AC24="","",_tag1_month_all!AC24)</f>
+        <f>IF(_tag1_month_all!AE24="","",_tag1_month_all!AE24)</f>
         <v/>
       </c>
       <c r="AD28" s="17" t="str">
-        <f>IF(_tag1_month_all!AD24="","",_tag1_month_all!AD24)</f>
+        <f>IF(_tag1_month_all!AF24="","",_tag1_month_all!AF24)</f>
         <v/>
       </c>
       <c r="AE28" s="17" t="str">
-        <f>IF(_tag1_month_all!AE24="","",_tag1_month_all!AE24)</f>
+        <f>IF(_tag1_month_all!AG24="","",_tag1_month_all!AG24)</f>
         <v/>
       </c>
       <c r="AF28" s="17" t="str">
-        <f>IF(_tag1_month_all!AF24="","",_tag1_month_all!AF24)</f>
+        <f>IF(_tag1_month_all!AH24="","",_tag1_month_all!AH24)</f>
         <v/>
       </c>
       <c r="AG28" s="17" t="str">
-        <f>IF(_tag1_month_all!AG24="","",_tag1_month_all!AG24)</f>
+        <f>IF(_tag1_month_all!AI24="","",_tag1_month_all!AI24)</f>
         <v/>
       </c>
       <c r="AH28" s="17" t="str">
-        <f>IF(_tag1_month_all!AH24="","",_tag1_month_all!AH24)</f>
+        <f>IF(_tag1_month_all!AJ24="","",_tag1_month_all!AJ24)</f>
         <v/>
       </c>
       <c r="AI28" s="17" t="str">
-        <f>IF(_tag1_month_all!AI24="","",_tag1_month_all!AI24)</f>
-        <v/>
-      </c>
-      <c r="AJ28" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ24="","",_tag1_month_all!AJ24)</f>
-        <v/>
-      </c>
-      <c r="AK28" s="17" t="str">
         <f>IF(_tag1_month_all!AK24="","",_tag1_month_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:35">
       <c r="A29" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43609</v>
+        <v>43640</v>
       </c>
       <c r="B29" s="17" t="str">
         <f>IF(_tag1_month_all!D25="","",_tag1_month_all!D25)</f>
@@ -5522,86 +5334,78 @@
         <v/>
       </c>
       <c r="S29" s="17" t="str">
-        <f>IF(_tag1_month_all!S25="","",_tag1_month_all!S25)</f>
+        <f>IF(_tag1_month_all!U25="","",_tag1_month_all!U25)</f>
         <v/>
       </c>
       <c r="T29" s="17" t="str">
-        <f>IF(_tag1_month_all!T25="","",_tag1_month_all!T25)</f>
+        <f>IF(_tag1_month_all!V25="","",_tag1_month_all!V25)</f>
         <v/>
       </c>
       <c r="U29" s="17" t="str">
-        <f>IF(_tag1_month_all!U25="","",_tag1_month_all!U25)</f>
+        <f>IF(_tag1_month_all!W25="","",_tag1_month_all!W25)</f>
         <v/>
       </c>
       <c r="V29" s="17" t="str">
-        <f>IF(_tag1_month_all!V25="","",_tag1_month_all!V25)</f>
+        <f>IF(_tag1_month_all!X25="","",_tag1_month_all!X25)</f>
         <v/>
       </c>
       <c r="W29" s="17" t="str">
-        <f>IF(_tag1_month_all!W25="","",_tag1_month_all!W25)</f>
+        <f>IF(_tag1_month_all!Y25="","",_tag1_month_all!Y25)</f>
         <v/>
       </c>
       <c r="X29" s="17" t="str">
-        <f>IF(_tag1_month_all!X25="","",_tag1_month_all!X25)</f>
+        <f>IF(_tag1_month_all!Z25="","",_tag1_month_all!Z25)</f>
         <v/>
       </c>
       <c r="Y29" s="17" t="str">
-        <f>IF(_tag1_month_all!Y25="","",_tag1_month_all!Y25)</f>
+        <f>IF(_tag1_month_all!AA25="","",_tag1_month_all!AA25)</f>
         <v/>
       </c>
       <c r="Z29" s="17" t="str">
-        <f>IF(_tag1_month_all!Z25="","",_tag1_month_all!Z25)</f>
+        <f>IF(_tag1_month_all!AB25="","",_tag1_month_all!AB25)</f>
         <v/>
       </c>
       <c r="AA29" s="17" t="str">
-        <f>IF(_tag1_month_all!AA25="","",_tag1_month_all!AA25)</f>
+        <f>IF(_tag1_month_all!AC25="","",_tag1_month_all!AC25)</f>
         <v/>
       </c>
       <c r="AB29" s="17" t="str">
-        <f>IF(_tag1_month_all!AB25="","",_tag1_month_all!AB25)</f>
+        <f>IF(_tag1_month_all!AD25="","",_tag1_month_all!AD25)</f>
         <v/>
       </c>
       <c r="AC29" s="17" t="str">
-        <f>IF(_tag1_month_all!AC25="","",_tag1_month_all!AC25)</f>
+        <f>IF(_tag1_month_all!AE25="","",_tag1_month_all!AE25)</f>
         <v/>
       </c>
       <c r="AD29" s="17" t="str">
-        <f>IF(_tag1_month_all!AD25="","",_tag1_month_all!AD25)</f>
+        <f>IF(_tag1_month_all!AF25="","",_tag1_month_all!AF25)</f>
         <v/>
       </c>
       <c r="AE29" s="17" t="str">
-        <f>IF(_tag1_month_all!AE25="","",_tag1_month_all!AE25)</f>
+        <f>IF(_tag1_month_all!AG25="","",_tag1_month_all!AG25)</f>
         <v/>
       </c>
       <c r="AF29" s="17" t="str">
-        <f>IF(_tag1_month_all!AF25="","",_tag1_month_all!AF25)</f>
+        <f>IF(_tag1_month_all!AH25="","",_tag1_month_all!AH25)</f>
         <v/>
       </c>
       <c r="AG29" s="17" t="str">
-        <f>IF(_tag1_month_all!AG25="","",_tag1_month_all!AG25)</f>
+        <f>IF(_tag1_month_all!AI25="","",_tag1_month_all!AI25)</f>
         <v/>
       </c>
       <c r="AH29" s="17" t="str">
-        <f>IF(_tag1_month_all!AH25="","",_tag1_month_all!AH25)</f>
+        <f>IF(_tag1_month_all!AJ25="","",_tag1_month_all!AJ25)</f>
         <v/>
       </c>
       <c r="AI29" s="17" t="str">
-        <f>IF(_tag1_month_all!AI25="","",_tag1_month_all!AI25)</f>
-        <v/>
-      </c>
-      <c r="AJ29" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ25="","",_tag1_month_all!AJ25)</f>
-        <v/>
-      </c>
-      <c r="AK29" s="17" t="str">
         <f>IF(_tag1_month_all!AK25="","",_tag1_month_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:35">
       <c r="A30" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43610</v>
+        <v>43641</v>
       </c>
       <c r="B30" s="17" t="str">
         <f>IF(_tag1_month_all!D26="","",_tag1_month_all!D26)</f>
@@ -5672,86 +5476,78 @@
         <v/>
       </c>
       <c r="S30" s="17" t="str">
-        <f>IF(_tag1_month_all!S26="","",_tag1_month_all!S26)</f>
+        <f>IF(_tag1_month_all!U26="","",_tag1_month_all!U26)</f>
         <v/>
       </c>
       <c r="T30" s="17" t="str">
-        <f>IF(_tag1_month_all!T26="","",_tag1_month_all!T26)</f>
+        <f>IF(_tag1_month_all!V26="","",_tag1_month_all!V26)</f>
         <v/>
       </c>
       <c r="U30" s="17" t="str">
-        <f>IF(_tag1_month_all!U26="","",_tag1_month_all!U26)</f>
+        <f>IF(_tag1_month_all!W26="","",_tag1_month_all!W26)</f>
         <v/>
       </c>
       <c r="V30" s="17" t="str">
-        <f>IF(_tag1_month_all!V26="","",_tag1_month_all!V26)</f>
+        <f>IF(_tag1_month_all!X26="","",_tag1_month_all!X26)</f>
         <v/>
       </c>
       <c r="W30" s="17" t="str">
-        <f>IF(_tag1_month_all!W26="","",_tag1_month_all!W26)</f>
+        <f>IF(_tag1_month_all!Y26="","",_tag1_month_all!Y26)</f>
         <v/>
       </c>
       <c r="X30" s="17" t="str">
-        <f>IF(_tag1_month_all!X26="","",_tag1_month_all!X26)</f>
+        <f>IF(_tag1_month_all!Z26="","",_tag1_month_all!Z26)</f>
         <v/>
       </c>
       <c r="Y30" s="17" t="str">
-        <f>IF(_tag1_month_all!Y26="","",_tag1_month_all!Y26)</f>
+        <f>IF(_tag1_month_all!AA26="","",_tag1_month_all!AA26)</f>
         <v/>
       </c>
       <c r="Z30" s="17" t="str">
-        <f>IF(_tag1_month_all!Z26="","",_tag1_month_all!Z26)</f>
+        <f>IF(_tag1_month_all!AB26="","",_tag1_month_all!AB26)</f>
         <v/>
       </c>
       <c r="AA30" s="17" t="str">
-        <f>IF(_tag1_month_all!AA26="","",_tag1_month_all!AA26)</f>
+        <f>IF(_tag1_month_all!AC26="","",_tag1_month_all!AC26)</f>
         <v/>
       </c>
       <c r="AB30" s="17" t="str">
-        <f>IF(_tag1_month_all!AB26="","",_tag1_month_all!AB26)</f>
+        <f>IF(_tag1_month_all!AD26="","",_tag1_month_all!AD26)</f>
         <v/>
       </c>
       <c r="AC30" s="17" t="str">
-        <f>IF(_tag1_month_all!AC26="","",_tag1_month_all!AC26)</f>
+        <f>IF(_tag1_month_all!AE26="","",_tag1_month_all!AE26)</f>
         <v/>
       </c>
       <c r="AD30" s="17" t="str">
-        <f>IF(_tag1_month_all!AD26="","",_tag1_month_all!AD26)</f>
+        <f>IF(_tag1_month_all!AF26="","",_tag1_month_all!AF26)</f>
         <v/>
       </c>
       <c r="AE30" s="17" t="str">
-        <f>IF(_tag1_month_all!AE26="","",_tag1_month_all!AE26)</f>
+        <f>IF(_tag1_month_all!AG26="","",_tag1_month_all!AG26)</f>
         <v/>
       </c>
       <c r="AF30" s="17" t="str">
-        <f>IF(_tag1_month_all!AF26="","",_tag1_month_all!AF26)</f>
+        <f>IF(_tag1_month_all!AH26="","",_tag1_month_all!AH26)</f>
         <v/>
       </c>
       <c r="AG30" s="17" t="str">
-        <f>IF(_tag1_month_all!AG26="","",_tag1_month_all!AG26)</f>
+        <f>IF(_tag1_month_all!AI26="","",_tag1_month_all!AI26)</f>
         <v/>
       </c>
       <c r="AH30" s="17" t="str">
-        <f>IF(_tag1_month_all!AH26="","",_tag1_month_all!AH26)</f>
+        <f>IF(_tag1_month_all!AJ26="","",_tag1_month_all!AJ26)</f>
         <v/>
       </c>
       <c r="AI30" s="17" t="str">
-        <f>IF(_tag1_month_all!AI26="","",_tag1_month_all!AI26)</f>
-        <v/>
-      </c>
-      <c r="AJ30" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ26="","",_tag1_month_all!AJ26)</f>
-        <v/>
-      </c>
-      <c r="AK30" s="17" t="str">
         <f>IF(_tag1_month_all!AK26="","",_tag1_month_all!AK26)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:35">
       <c r="A31" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43611</v>
+        <v>43642</v>
       </c>
       <c r="B31" s="17" t="str">
         <f>IF(_tag1_month_all!D27="","",_tag1_month_all!D27)</f>
@@ -5822,86 +5618,78 @@
         <v/>
       </c>
       <c r="S31" s="17" t="str">
-        <f>IF(_tag1_month_all!S27="","",_tag1_month_all!S27)</f>
+        <f>IF(_tag1_month_all!U27="","",_tag1_month_all!U27)</f>
         <v/>
       </c>
       <c r="T31" s="17" t="str">
-        <f>IF(_tag1_month_all!T27="","",_tag1_month_all!T27)</f>
+        <f>IF(_tag1_month_all!V27="","",_tag1_month_all!V27)</f>
         <v/>
       </c>
       <c r="U31" s="17" t="str">
-        <f>IF(_tag1_month_all!U27="","",_tag1_month_all!U27)</f>
+        <f>IF(_tag1_month_all!W27="","",_tag1_month_all!W27)</f>
         <v/>
       </c>
       <c r="V31" s="17" t="str">
-        <f>IF(_tag1_month_all!V27="","",_tag1_month_all!V27)</f>
+        <f>IF(_tag1_month_all!X27="","",_tag1_month_all!X27)</f>
         <v/>
       </c>
       <c r="W31" s="17" t="str">
-        <f>IF(_tag1_month_all!W27="","",_tag1_month_all!W27)</f>
+        <f>IF(_tag1_month_all!Y27="","",_tag1_month_all!Y27)</f>
         <v/>
       </c>
       <c r="X31" s="17" t="str">
-        <f>IF(_tag1_month_all!X27="","",_tag1_month_all!X27)</f>
+        <f>IF(_tag1_month_all!Z27="","",_tag1_month_all!Z27)</f>
         <v/>
       </c>
       <c r="Y31" s="17" t="str">
-        <f>IF(_tag1_month_all!Y27="","",_tag1_month_all!Y27)</f>
+        <f>IF(_tag1_month_all!AA27="","",_tag1_month_all!AA27)</f>
         <v/>
       </c>
       <c r="Z31" s="17" t="str">
-        <f>IF(_tag1_month_all!Z27="","",_tag1_month_all!Z27)</f>
+        <f>IF(_tag1_month_all!AB27="","",_tag1_month_all!AB27)</f>
         <v/>
       </c>
       <c r="AA31" s="17" t="str">
-        <f>IF(_tag1_month_all!AA27="","",_tag1_month_all!AA27)</f>
+        <f>IF(_tag1_month_all!AC27="","",_tag1_month_all!AC27)</f>
         <v/>
       </c>
       <c r="AB31" s="17" t="str">
-        <f>IF(_tag1_month_all!AB27="","",_tag1_month_all!AB27)</f>
+        <f>IF(_tag1_month_all!AD27="","",_tag1_month_all!AD27)</f>
         <v/>
       </c>
       <c r="AC31" s="17" t="str">
-        <f>IF(_tag1_month_all!AC27="","",_tag1_month_all!AC27)</f>
+        <f>IF(_tag1_month_all!AE27="","",_tag1_month_all!AE27)</f>
         <v/>
       </c>
       <c r="AD31" s="17" t="str">
-        <f>IF(_tag1_month_all!AD27="","",_tag1_month_all!AD27)</f>
+        <f>IF(_tag1_month_all!AF27="","",_tag1_month_all!AF27)</f>
         <v/>
       </c>
       <c r="AE31" s="17" t="str">
-        <f>IF(_tag1_month_all!AE27="","",_tag1_month_all!AE27)</f>
+        <f>IF(_tag1_month_all!AG27="","",_tag1_month_all!AG27)</f>
         <v/>
       </c>
       <c r="AF31" s="17" t="str">
-        <f>IF(_tag1_month_all!AF27="","",_tag1_month_all!AF27)</f>
+        <f>IF(_tag1_month_all!AH27="","",_tag1_month_all!AH27)</f>
         <v/>
       </c>
       <c r="AG31" s="17" t="str">
-        <f>IF(_tag1_month_all!AG27="","",_tag1_month_all!AG27)</f>
+        <f>IF(_tag1_month_all!AI27="","",_tag1_month_all!AI27)</f>
         <v/>
       </c>
       <c r="AH31" s="17" t="str">
-        <f>IF(_tag1_month_all!AH27="","",_tag1_month_all!AH27)</f>
+        <f>IF(_tag1_month_all!AJ27="","",_tag1_month_all!AJ27)</f>
         <v/>
       </c>
       <c r="AI31" s="17" t="str">
-        <f>IF(_tag1_month_all!AI27="","",_tag1_month_all!AI27)</f>
-        <v/>
-      </c>
-      <c r="AJ31" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ27="","",_tag1_month_all!AJ27)</f>
-        <v/>
-      </c>
-      <c r="AK31" s="17" t="str">
         <f>IF(_tag1_month_all!AK27="","",_tag1_month_all!AK27)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:35">
       <c r="A32" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43612</v>
+        <v>43643</v>
       </c>
       <c r="B32" s="17" t="str">
         <f>IF(_tag1_month_all!D28="","",_tag1_month_all!D28)</f>
@@ -5972,86 +5760,78 @@
         <v/>
       </c>
       <c r="S32" s="17" t="str">
-        <f>IF(_tag1_month_all!S28="","",_tag1_month_all!S28)</f>
+        <f>IF(_tag1_month_all!U28="","",_tag1_month_all!U28)</f>
         <v/>
       </c>
       <c r="T32" s="17" t="str">
-        <f>IF(_tag1_month_all!T28="","",_tag1_month_all!T28)</f>
+        <f>IF(_tag1_month_all!V28="","",_tag1_month_all!V28)</f>
         <v/>
       </c>
       <c r="U32" s="17" t="str">
-        <f>IF(_tag1_month_all!U28="","",_tag1_month_all!U28)</f>
+        <f>IF(_tag1_month_all!W28="","",_tag1_month_all!W28)</f>
         <v/>
       </c>
       <c r="V32" s="17" t="str">
-        <f>IF(_tag1_month_all!V28="","",_tag1_month_all!V28)</f>
+        <f>IF(_tag1_month_all!X28="","",_tag1_month_all!X28)</f>
         <v/>
       </c>
       <c r="W32" s="17" t="str">
-        <f>IF(_tag1_month_all!W28="","",_tag1_month_all!W28)</f>
+        <f>IF(_tag1_month_all!Y28="","",_tag1_month_all!Y28)</f>
         <v/>
       </c>
       <c r="X32" s="17" t="str">
-        <f>IF(_tag1_month_all!X28="","",_tag1_month_all!X28)</f>
+        <f>IF(_tag1_month_all!Z28="","",_tag1_month_all!Z28)</f>
         <v/>
       </c>
       <c r="Y32" s="17" t="str">
-        <f>IF(_tag1_month_all!Y28="","",_tag1_month_all!Y28)</f>
+        <f>IF(_tag1_month_all!AA28="","",_tag1_month_all!AA28)</f>
         <v/>
       </c>
       <c r="Z32" s="17" t="str">
-        <f>IF(_tag1_month_all!Z28="","",_tag1_month_all!Z28)</f>
+        <f>IF(_tag1_month_all!AB28="","",_tag1_month_all!AB28)</f>
         <v/>
       </c>
       <c r="AA32" s="17" t="str">
-        <f>IF(_tag1_month_all!AA28="","",_tag1_month_all!AA28)</f>
+        <f>IF(_tag1_month_all!AC28="","",_tag1_month_all!AC28)</f>
         <v/>
       </c>
       <c r="AB32" s="17" t="str">
-        <f>IF(_tag1_month_all!AB28="","",_tag1_month_all!AB28)</f>
+        <f>IF(_tag1_month_all!AD28="","",_tag1_month_all!AD28)</f>
         <v/>
       </c>
       <c r="AC32" s="17" t="str">
-        <f>IF(_tag1_month_all!AC28="","",_tag1_month_all!AC28)</f>
+        <f>IF(_tag1_month_all!AE28="","",_tag1_month_all!AE28)</f>
         <v/>
       </c>
       <c r="AD32" s="17" t="str">
-        <f>IF(_tag1_month_all!AD28="","",_tag1_month_all!AD28)</f>
+        <f>IF(_tag1_month_all!AF28="","",_tag1_month_all!AF28)</f>
         <v/>
       </c>
       <c r="AE32" s="17" t="str">
-        <f>IF(_tag1_month_all!AE28="","",_tag1_month_all!AE28)</f>
+        <f>IF(_tag1_month_all!AG28="","",_tag1_month_all!AG28)</f>
         <v/>
       </c>
       <c r="AF32" s="17" t="str">
-        <f>IF(_tag1_month_all!AF28="","",_tag1_month_all!AF28)</f>
+        <f>IF(_tag1_month_all!AH28="","",_tag1_month_all!AH28)</f>
         <v/>
       </c>
       <c r="AG32" s="17" t="str">
-        <f>IF(_tag1_month_all!AG28="","",_tag1_month_all!AG28)</f>
+        <f>IF(_tag1_month_all!AI28="","",_tag1_month_all!AI28)</f>
         <v/>
       </c>
       <c r="AH32" s="17" t="str">
-        <f>IF(_tag1_month_all!AH28="","",_tag1_month_all!AH28)</f>
+        <f>IF(_tag1_month_all!AJ28="","",_tag1_month_all!AJ28)</f>
         <v/>
       </c>
       <c r="AI32" s="17" t="str">
-        <f>IF(_tag1_month_all!AI28="","",_tag1_month_all!AI28)</f>
-        <v/>
-      </c>
-      <c r="AJ32" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ28="","",_tag1_month_all!AJ28)</f>
-        <v/>
-      </c>
-      <c r="AK32" s="17" t="str">
         <f>IF(_tag1_month_all!AK28="","",_tag1_month_all!AK28)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:35">
       <c r="A33" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43613</v>
+        <v>43644</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>IF(_tag1_month_all!D29="","",_tag1_month_all!D29)</f>
@@ -6122,86 +5902,78 @@
         <v/>
       </c>
       <c r="S33" s="17" t="str">
-        <f>IF(_tag1_month_all!S29="","",_tag1_month_all!S29)</f>
+        <f>IF(_tag1_month_all!U29="","",_tag1_month_all!U29)</f>
         <v/>
       </c>
       <c r="T33" s="17" t="str">
-        <f>IF(_tag1_month_all!T29="","",_tag1_month_all!T29)</f>
+        <f>IF(_tag1_month_all!V29="","",_tag1_month_all!V29)</f>
         <v/>
       </c>
       <c r="U33" s="17" t="str">
-        <f>IF(_tag1_month_all!U29="","",_tag1_month_all!U29)</f>
+        <f>IF(_tag1_month_all!W29="","",_tag1_month_all!W29)</f>
         <v/>
       </c>
       <c r="V33" s="17" t="str">
-        <f>IF(_tag1_month_all!V29="","",_tag1_month_all!V29)</f>
+        <f>IF(_tag1_month_all!X29="","",_tag1_month_all!X29)</f>
         <v/>
       </c>
       <c r="W33" s="17" t="str">
-        <f>IF(_tag1_month_all!W29="","",_tag1_month_all!W29)</f>
+        <f>IF(_tag1_month_all!Y29="","",_tag1_month_all!Y29)</f>
         <v/>
       </c>
       <c r="X33" s="17" t="str">
-        <f>IF(_tag1_month_all!X29="","",_tag1_month_all!X29)</f>
+        <f>IF(_tag1_month_all!Z29="","",_tag1_month_all!Z29)</f>
         <v/>
       </c>
       <c r="Y33" s="17" t="str">
-        <f>IF(_tag1_month_all!Y29="","",_tag1_month_all!Y29)</f>
+        <f>IF(_tag1_month_all!AA29="","",_tag1_month_all!AA29)</f>
         <v/>
       </c>
       <c r="Z33" s="17" t="str">
-        <f>IF(_tag1_month_all!Z29="","",_tag1_month_all!Z29)</f>
+        <f>IF(_tag1_month_all!AB29="","",_tag1_month_all!AB29)</f>
         <v/>
       </c>
       <c r="AA33" s="17" t="str">
-        <f>IF(_tag1_month_all!AA29="","",_tag1_month_all!AA29)</f>
+        <f>IF(_tag1_month_all!AC29="","",_tag1_month_all!AC29)</f>
         <v/>
       </c>
       <c r="AB33" s="17" t="str">
-        <f>IF(_tag1_month_all!AB29="","",_tag1_month_all!AB29)</f>
+        <f>IF(_tag1_month_all!AD29="","",_tag1_month_all!AD29)</f>
         <v/>
       </c>
       <c r="AC33" s="17" t="str">
-        <f>IF(_tag1_month_all!AC29="","",_tag1_month_all!AC29)</f>
+        <f>IF(_tag1_month_all!AE29="","",_tag1_month_all!AE29)</f>
         <v/>
       </c>
       <c r="AD33" s="17" t="str">
-        <f>IF(_tag1_month_all!AD29="","",_tag1_month_all!AD29)</f>
+        <f>IF(_tag1_month_all!AF29="","",_tag1_month_all!AF29)</f>
         <v/>
       </c>
       <c r="AE33" s="17" t="str">
-        <f>IF(_tag1_month_all!AE29="","",_tag1_month_all!AE29)</f>
+        <f>IF(_tag1_month_all!AG29="","",_tag1_month_all!AG29)</f>
         <v/>
       </c>
       <c r="AF33" s="17" t="str">
-        <f>IF(_tag1_month_all!AF29="","",_tag1_month_all!AF29)</f>
+        <f>IF(_tag1_month_all!AH29="","",_tag1_month_all!AH29)</f>
         <v/>
       </c>
       <c r="AG33" s="17" t="str">
-        <f>IF(_tag1_month_all!AG29="","",_tag1_month_all!AG29)</f>
+        <f>IF(_tag1_month_all!AI29="","",_tag1_month_all!AI29)</f>
         <v/>
       </c>
       <c r="AH33" s="17" t="str">
-        <f>IF(_tag1_month_all!AH29="","",_tag1_month_all!AH29)</f>
+        <f>IF(_tag1_month_all!AJ29="","",_tag1_month_all!AJ29)</f>
         <v/>
       </c>
       <c r="AI33" s="17" t="str">
-        <f>IF(_tag1_month_all!AI29="","",_tag1_month_all!AI29)</f>
-        <v/>
-      </c>
-      <c r="AJ33" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ29="","",_tag1_month_all!AJ29)</f>
-        <v/>
-      </c>
-      <c r="AK33" s="17" t="str">
         <f>IF(_tag1_month_all!AK29="","",_tag1_month_all!AK29)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:35">
       <c r="A34" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43614</v>
+        <v>43645</v>
       </c>
       <c r="B34" s="17" t="str">
         <f>IF(_tag1_month_all!D30="","",_tag1_month_all!D30)</f>
@@ -6272,86 +6044,78 @@
         <v/>
       </c>
       <c r="S34" s="17" t="str">
-        <f>IF(_tag1_month_all!S30="","",_tag1_month_all!S30)</f>
+        <f>IF(_tag1_month_all!U30="","",_tag1_month_all!U30)</f>
         <v/>
       </c>
       <c r="T34" s="17" t="str">
-        <f>IF(_tag1_month_all!T30="","",_tag1_month_all!T30)</f>
+        <f>IF(_tag1_month_all!V30="","",_tag1_month_all!V30)</f>
         <v/>
       </c>
       <c r="U34" s="17" t="str">
-        <f>IF(_tag1_month_all!U30="","",_tag1_month_all!U30)</f>
+        <f>IF(_tag1_month_all!W30="","",_tag1_month_all!W30)</f>
         <v/>
       </c>
       <c r="V34" s="17" t="str">
-        <f>IF(_tag1_month_all!V30="","",_tag1_month_all!V30)</f>
+        <f>IF(_tag1_month_all!X30="","",_tag1_month_all!X30)</f>
         <v/>
       </c>
       <c r="W34" s="17" t="str">
-        <f>IF(_tag1_month_all!W30="","",_tag1_month_all!W30)</f>
+        <f>IF(_tag1_month_all!Y30="","",_tag1_month_all!Y30)</f>
         <v/>
       </c>
       <c r="X34" s="17" t="str">
-        <f>IF(_tag1_month_all!X30="","",_tag1_month_all!X30)</f>
+        <f>IF(_tag1_month_all!Z30="","",_tag1_month_all!Z30)</f>
         <v/>
       </c>
       <c r="Y34" s="17" t="str">
-        <f>IF(_tag1_month_all!Y30="","",_tag1_month_all!Y30)</f>
+        <f>IF(_tag1_month_all!AA30="","",_tag1_month_all!AA30)</f>
         <v/>
       </c>
       <c r="Z34" s="17" t="str">
-        <f>IF(_tag1_month_all!Z30="","",_tag1_month_all!Z30)</f>
+        <f>IF(_tag1_month_all!AB30="","",_tag1_month_all!AB30)</f>
         <v/>
       </c>
       <c r="AA34" s="17" t="str">
-        <f>IF(_tag1_month_all!AA30="","",_tag1_month_all!AA30)</f>
+        <f>IF(_tag1_month_all!AC30="","",_tag1_month_all!AC30)</f>
         <v/>
       </c>
       <c r="AB34" s="17" t="str">
-        <f>IF(_tag1_month_all!AB30="","",_tag1_month_all!AB30)</f>
+        <f>IF(_tag1_month_all!AD30="","",_tag1_month_all!AD30)</f>
         <v/>
       </c>
       <c r="AC34" s="17" t="str">
-        <f>IF(_tag1_month_all!AC30="","",_tag1_month_all!AC30)</f>
+        <f>IF(_tag1_month_all!AE30="","",_tag1_month_all!AE30)</f>
         <v/>
       </c>
       <c r="AD34" s="17" t="str">
-        <f>IF(_tag1_month_all!AD30="","",_tag1_month_all!AD30)</f>
+        <f>IF(_tag1_month_all!AF30="","",_tag1_month_all!AF30)</f>
         <v/>
       </c>
       <c r="AE34" s="17" t="str">
-        <f>IF(_tag1_month_all!AE30="","",_tag1_month_all!AE30)</f>
+        <f>IF(_tag1_month_all!AG30="","",_tag1_month_all!AG30)</f>
         <v/>
       </c>
       <c r="AF34" s="17" t="str">
-        <f>IF(_tag1_month_all!AF30="","",_tag1_month_all!AF30)</f>
+        <f>IF(_tag1_month_all!AH30="","",_tag1_month_all!AH30)</f>
         <v/>
       </c>
       <c r="AG34" s="17" t="str">
-        <f>IF(_tag1_month_all!AG30="","",_tag1_month_all!AG30)</f>
+        <f>IF(_tag1_month_all!AI30="","",_tag1_month_all!AI30)</f>
         <v/>
       </c>
       <c r="AH34" s="17" t="str">
-        <f>IF(_tag1_month_all!AH30="","",_tag1_month_all!AH30)</f>
+        <f>IF(_tag1_month_all!AJ30="","",_tag1_month_all!AJ30)</f>
         <v/>
       </c>
       <c r="AI34" s="17" t="str">
-        <f>IF(_tag1_month_all!AI30="","",_tag1_month_all!AI30)</f>
-        <v/>
-      </c>
-      <c r="AJ34" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ30="","",_tag1_month_all!AJ30)</f>
-        <v/>
-      </c>
-      <c r="AK34" s="17" t="str">
         <f>IF(_tag1_month_all!AK30="","",_tag1_month_all!AK30)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:35">
       <c r="A35" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43615</v>
+        <v>43646</v>
       </c>
       <c r="B35" s="17" t="str">
         <f>IF(_tag1_month_all!D31="","",_tag1_month_all!D31)</f>
@@ -6422,86 +6186,78 @@
         <v/>
       </c>
       <c r="S35" s="17" t="str">
-        <f>IF(_tag1_month_all!S31="","",_tag1_month_all!S31)</f>
+        <f>IF(_tag1_month_all!U31="","",_tag1_month_all!U31)</f>
         <v/>
       </c>
       <c r="T35" s="17" t="str">
-        <f>IF(_tag1_month_all!T31="","",_tag1_month_all!T31)</f>
+        <f>IF(_tag1_month_all!V31="","",_tag1_month_all!V31)</f>
         <v/>
       </c>
       <c r="U35" s="17" t="str">
-        <f>IF(_tag1_month_all!U31="","",_tag1_month_all!U31)</f>
+        <f>IF(_tag1_month_all!W31="","",_tag1_month_all!W31)</f>
         <v/>
       </c>
       <c r="V35" s="17" t="str">
-        <f>IF(_tag1_month_all!V31="","",_tag1_month_all!V31)</f>
+        <f>IF(_tag1_month_all!X31="","",_tag1_month_all!X31)</f>
         <v/>
       </c>
       <c r="W35" s="17" t="str">
-        <f>IF(_tag1_month_all!W31="","",_tag1_month_all!W31)</f>
+        <f>IF(_tag1_month_all!Y31="","",_tag1_month_all!Y31)</f>
         <v/>
       </c>
       <c r="X35" s="17" t="str">
-        <f>IF(_tag1_month_all!X31="","",_tag1_month_all!X31)</f>
+        <f>IF(_tag1_month_all!Z31="","",_tag1_month_all!Z31)</f>
         <v/>
       </c>
       <c r="Y35" s="17" t="str">
-        <f>IF(_tag1_month_all!Y31="","",_tag1_month_all!Y31)</f>
+        <f>IF(_tag1_month_all!AA31="","",_tag1_month_all!AA31)</f>
         <v/>
       </c>
       <c r="Z35" s="17" t="str">
-        <f>IF(_tag1_month_all!Z31="","",_tag1_month_all!Z31)</f>
+        <f>IF(_tag1_month_all!AB31="","",_tag1_month_all!AB31)</f>
         <v/>
       </c>
       <c r="AA35" s="17" t="str">
-        <f>IF(_tag1_month_all!AA31="","",_tag1_month_all!AA31)</f>
+        <f>IF(_tag1_month_all!AC31="","",_tag1_month_all!AC31)</f>
         <v/>
       </c>
       <c r="AB35" s="17" t="str">
-        <f>IF(_tag1_month_all!AB31="","",_tag1_month_all!AB31)</f>
+        <f>IF(_tag1_month_all!AD31="","",_tag1_month_all!AD31)</f>
         <v/>
       </c>
       <c r="AC35" s="17" t="str">
-        <f>IF(_tag1_month_all!AC31="","",_tag1_month_all!AC31)</f>
+        <f>IF(_tag1_month_all!AE31="","",_tag1_month_all!AE31)</f>
         <v/>
       </c>
       <c r="AD35" s="17" t="str">
-        <f>IF(_tag1_month_all!AD31="","",_tag1_month_all!AD31)</f>
+        <f>IF(_tag1_month_all!AF31="","",_tag1_month_all!AF31)</f>
         <v/>
       </c>
       <c r="AE35" s="17" t="str">
-        <f>IF(_tag1_month_all!AE31="","",_tag1_month_all!AE31)</f>
+        <f>IF(_tag1_month_all!AG31="","",_tag1_month_all!AG31)</f>
         <v/>
       </c>
       <c r="AF35" s="17" t="str">
-        <f>IF(_tag1_month_all!AF31="","",_tag1_month_all!AF31)</f>
+        <f>IF(_tag1_month_all!AH31="","",_tag1_month_all!AH31)</f>
         <v/>
       </c>
       <c r="AG35" s="17" t="str">
-        <f>IF(_tag1_month_all!AG31="","",_tag1_month_all!AG31)</f>
+        <f>IF(_tag1_month_all!AI31="","",_tag1_month_all!AI31)</f>
         <v/>
       </c>
       <c r="AH35" s="17" t="str">
-        <f>IF(_tag1_month_all!AH31="","",_tag1_month_all!AH31)</f>
+        <f>IF(_tag1_month_all!AJ31="","",_tag1_month_all!AJ31)</f>
         <v/>
       </c>
       <c r="AI35" s="17" t="str">
-        <f>IF(_tag1_month_all!AI31="","",_tag1_month_all!AI31)</f>
-        <v/>
-      </c>
-      <c r="AJ35" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ31="","",_tag1_month_all!AJ31)</f>
-        <v/>
-      </c>
-      <c r="AK35" s="17" t="str">
         <f>IF(_tag1_month_all!AK31="","",_tag1_month_all!AK31)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:35">
       <c r="A36" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43616</v>
+        <v>43647</v>
       </c>
       <c r="B36" s="17" t="str">
         <f>IF(_tag1_month_all!D32="","",_tag1_month_all!D32)</f>
@@ -6572,85 +6328,77 @@
         <v/>
       </c>
       <c r="S36" s="17" t="str">
-        <f>IF(_tag1_month_all!S32="","",_tag1_month_all!S32)</f>
+        <f>IF(_tag1_month_all!U32="","",_tag1_month_all!U32)</f>
         <v/>
       </c>
       <c r="T36" s="17" t="str">
-        <f>IF(_tag1_month_all!T32="","",_tag1_month_all!T32)</f>
+        <f>IF(_tag1_month_all!V32="","",_tag1_month_all!V32)</f>
         <v/>
       </c>
       <c r="U36" s="17" t="str">
-        <f>IF(_tag1_month_all!U32="","",_tag1_month_all!U32)</f>
+        <f>IF(_tag1_month_all!W32="","",_tag1_month_all!W32)</f>
         <v/>
       </c>
       <c r="V36" s="17" t="str">
-        <f>IF(_tag1_month_all!V32="","",_tag1_month_all!V32)</f>
+        <f>IF(_tag1_month_all!X32="","",_tag1_month_all!X32)</f>
         <v/>
       </c>
       <c r="W36" s="17" t="str">
-        <f>IF(_tag1_month_all!W32="","",_tag1_month_all!W32)</f>
+        <f>IF(_tag1_month_all!Y32="","",_tag1_month_all!Y32)</f>
         <v/>
       </c>
       <c r="X36" s="17" t="str">
-        <f>IF(_tag1_month_all!X32="","",_tag1_month_all!X32)</f>
+        <f>IF(_tag1_month_all!Z32="","",_tag1_month_all!Z32)</f>
         <v/>
       </c>
       <c r="Y36" s="17" t="str">
-        <f>IF(_tag1_month_all!Y32="","",_tag1_month_all!Y32)</f>
+        <f>IF(_tag1_month_all!AA32="","",_tag1_month_all!AA32)</f>
         <v/>
       </c>
       <c r="Z36" s="17" t="str">
-        <f>IF(_tag1_month_all!Z32="","",_tag1_month_all!Z32)</f>
+        <f>IF(_tag1_month_all!AB32="","",_tag1_month_all!AB32)</f>
         <v/>
       </c>
       <c r="AA36" s="17" t="str">
-        <f>IF(_tag1_month_all!AA32="","",_tag1_month_all!AA32)</f>
+        <f>IF(_tag1_month_all!AC32="","",_tag1_month_all!AC32)</f>
         <v/>
       </c>
       <c r="AB36" s="17" t="str">
-        <f>IF(_tag1_month_all!AB32="","",_tag1_month_all!AB32)</f>
+        <f>IF(_tag1_month_all!AD32="","",_tag1_month_all!AD32)</f>
         <v/>
       </c>
       <c r="AC36" s="17" t="str">
-        <f>IF(_tag1_month_all!AC32="","",_tag1_month_all!AC32)</f>
+        <f>IF(_tag1_month_all!AE32="","",_tag1_month_all!AE32)</f>
         <v/>
       </c>
       <c r="AD36" s="17" t="str">
-        <f>IF(_tag1_month_all!AD32="","",_tag1_month_all!AD32)</f>
+        <f>IF(_tag1_month_all!AF32="","",_tag1_month_all!AF32)</f>
         <v/>
       </c>
       <c r="AE36" s="17" t="str">
-        <f>IF(_tag1_month_all!AE32="","",_tag1_month_all!AE32)</f>
+        <f>IF(_tag1_month_all!AG32="","",_tag1_month_all!AG32)</f>
         <v/>
       </c>
       <c r="AF36" s="17" t="str">
-        <f>IF(_tag1_month_all!AF32="","",_tag1_month_all!AF32)</f>
+        <f>IF(_tag1_month_all!AH32="","",_tag1_month_all!AH32)</f>
         <v/>
       </c>
       <c r="AG36" s="17" t="str">
-        <f>IF(_tag1_month_all!AG32="","",_tag1_month_all!AG32)</f>
+        <f>IF(_tag1_month_all!AI32="","",_tag1_month_all!AI32)</f>
         <v/>
       </c>
       <c r="AH36" s="17" t="str">
-        <f>IF(_tag1_month_all!AH32="","",_tag1_month_all!AH32)</f>
+        <f>IF(_tag1_month_all!AJ32="","",_tag1_month_all!AJ32)</f>
         <v/>
       </c>
       <c r="AI36" s="17" t="str">
-        <f>IF(_tag1_month_all!AI32="","",_tag1_month_all!AI32)</f>
-        <v/>
-      </c>
-      <c r="AJ36" s="17" t="str">
-        <f>IF(_tag1_month_all!AJ32="","",_tag1_month_all!AJ32)</f>
-        <v/>
-      </c>
-      <c r="AK36" s="17" t="str">
         <f>IF(_tag1_month_all!AK32="","",_tag1_month_all!AK32)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:35">
       <c r="A37" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="17" t="str">
         <f t="shared" ref="B37:AK37" si="1">IFERROR(AVERAGE(B6:B36),"")</f>
@@ -6721,91 +6469,82 @@
         <v/>
       </c>
       <c r="S37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(S6:S36),"")</f>
         <v/>
       </c>
       <c r="T37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(T6:T36),"")</f>
         <v/>
       </c>
       <c r="U37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(U6:U36),"")</f>
         <v/>
       </c>
       <c r="V37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(V6:V36),"")</f>
         <v/>
       </c>
       <c r="W37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(W6:W36),"")</f>
         <v/>
       </c>
       <c r="X37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(X6:X36),"")</f>
         <v/>
       </c>
       <c r="Y37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(Y6:Y36),"")</f>
         <v/>
       </c>
       <c r="Z37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(Z6:Z36),"")</f>
         <v/>
       </c>
       <c r="AA37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AA6:AA36),"")</f>
         <v/>
       </c>
       <c r="AB37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AB6:AB36),"")</f>
         <v/>
       </c>
       <c r="AC37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AC6:AC36),"")</f>
         <v/>
       </c>
       <c r="AD37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AD6:AD36),"")</f>
         <v/>
       </c>
       <c r="AE37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AE6:AE36),"")</f>
         <v/>
       </c>
       <c r="AF37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AF6:AF36),"")</f>
         <v/>
       </c>
       <c r="AG37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AG6:AG36),"")</f>
         <v/>
       </c>
       <c r="AH37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AH6:AH36),"")</f>
         <v/>
       </c>
       <c r="AI37" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AJ37" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AK37" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(AVERAGE(AI6:AI36),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="M2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AK2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6830,7 +6569,7 @@
   <sheetData>
     <row r="1" ht="29.25" spans="1:22">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6856,212 +6595,212 @@
     </row>
     <row r="2" s="5" customFormat="1" ht="15" spans="1:22">
       <c r="A2" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="P3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="R3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="78" hidden="1" customHeight="1" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="16">
         <f ca="1">IF(_metadata!B22="",EOMONTH(NOW(),-1)+1,_metadata!B22)</f>
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B5" s="17" t="str">
         <f>IF(_tag2_month_all!B2="","",_tag2_month_all!B2)</f>
@@ -7151,7 +6890,7 @@
     <row r="6" spans="1:22">
       <c r="A6" s="16">
         <f ca="1" t="shared" ref="A6:A35" si="0">A5+1</f>
-        <v>43587</v>
+        <v>43618</v>
       </c>
       <c r="B6" s="17" t="str">
         <f>IF(_tag2_month_all!B3="","",_tag2_month_all!B3)</f>
@@ -7241,7 +6980,7 @@
     <row r="7" spans="1:22">
       <c r="A7" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43588</v>
+        <v>43619</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>IF(_tag2_month_all!B4="","",_tag2_month_all!B4)</f>
@@ -7331,7 +7070,7 @@
     <row r="8" spans="1:22">
       <c r="A8" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43589</v>
+        <v>43620</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>IF(_tag2_month_all!B5="","",_tag2_month_all!B5)</f>
@@ -7421,7 +7160,7 @@
     <row r="9" spans="1:22">
       <c r="A9" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43590</v>
+        <v>43621</v>
       </c>
       <c r="B9" s="17" t="str">
         <f>IF(_tag2_month_all!B6="","",_tag2_month_all!B6)</f>
@@ -7511,7 +7250,7 @@
     <row r="10" spans="1:22">
       <c r="A10" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43591</v>
+        <v>43622</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>IF(_tag2_month_all!B7="","",_tag2_month_all!B7)</f>
@@ -7601,7 +7340,7 @@
     <row r="11" spans="1:22">
       <c r="A11" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43592</v>
+        <v>43623</v>
       </c>
       <c r="B11" s="17" t="str">
         <f>IF(_tag2_month_all!B8="","",_tag2_month_all!B8)</f>
@@ -7691,7 +7430,7 @@
     <row r="12" spans="1:22">
       <c r="A12" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43593</v>
+        <v>43624</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>IF(_tag2_month_all!B9="","",_tag2_month_all!B9)</f>
@@ -7781,7 +7520,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43594</v>
+        <v>43625</v>
       </c>
       <c r="B13" s="17" t="str">
         <f>IF(_tag2_month_all!B10="","",_tag2_month_all!B10)</f>
@@ -7871,7 +7610,7 @@
     <row r="14" spans="1:22">
       <c r="A14" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43595</v>
+        <v>43626</v>
       </c>
       <c r="B14" s="17" t="str">
         <f>IF(_tag2_month_all!B11="","",_tag2_month_all!B11)</f>
@@ -7961,7 +7700,7 @@
     <row r="15" spans="1:22">
       <c r="A15" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43596</v>
+        <v>43627</v>
       </c>
       <c r="B15" s="17" t="str">
         <f>IF(_tag2_month_all!B12="","",_tag2_month_all!B12)</f>
@@ -8051,7 +7790,7 @@
     <row r="16" spans="1:22">
       <c r="A16" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43597</v>
+        <v>43628</v>
       </c>
       <c r="B16" s="17" t="str">
         <f>IF(_tag2_month_all!B13="","",_tag2_month_all!B13)</f>
@@ -8141,7 +7880,7 @@
     <row r="17" spans="1:22">
       <c r="A17" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43598</v>
+        <v>43629</v>
       </c>
       <c r="B17" s="17" t="str">
         <f>IF(_tag2_month_all!B14="","",_tag2_month_all!B14)</f>
@@ -8231,7 +7970,7 @@
     <row r="18" spans="1:22">
       <c r="A18" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43599</v>
+        <v>43630</v>
       </c>
       <c r="B18" s="17" t="str">
         <f>IF(_tag2_month_all!B15="","",_tag2_month_all!B15)</f>
@@ -8321,7 +8060,7 @@
     <row r="19" spans="1:22">
       <c r="A19" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43600</v>
+        <v>43631</v>
       </c>
       <c r="B19" s="17" t="str">
         <f>IF(_tag2_month_all!B16="","",_tag2_month_all!B16)</f>
@@ -8411,7 +8150,7 @@
     <row r="20" spans="1:22">
       <c r="A20" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43601</v>
+        <v>43632</v>
       </c>
       <c r="B20" s="17" t="str">
         <f>IF(_tag2_month_all!B17="","",_tag2_month_all!B17)</f>
@@ -8501,7 +8240,7 @@
     <row r="21" spans="1:22">
       <c r="A21" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43602</v>
+        <v>43633</v>
       </c>
       <c r="B21" s="17" t="str">
         <f>IF(_tag2_month_all!B18="","",_tag2_month_all!B18)</f>
@@ -8591,7 +8330,7 @@
     <row r="22" spans="1:22">
       <c r="A22" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43603</v>
+        <v>43634</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>IF(_tag2_month_all!B19="","",_tag2_month_all!B19)</f>
@@ -8681,7 +8420,7 @@
     <row r="23" spans="1:22">
       <c r="A23" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43604</v>
+        <v>43635</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>IF(_tag2_month_all!B20="","",_tag2_month_all!B20)</f>
@@ -8771,7 +8510,7 @@
     <row r="24" spans="1:22">
       <c r="A24" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43605</v>
+        <v>43636</v>
       </c>
       <c r="B24" s="17" t="str">
         <f>IF(_tag2_month_all!B21="","",_tag2_month_all!B21)</f>
@@ -8861,7 +8600,7 @@
     <row r="25" spans="1:22">
       <c r="A25" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43606</v>
+        <v>43637</v>
       </c>
       <c r="B25" s="17" t="str">
         <f>IF(_tag2_month_all!B22="","",_tag2_month_all!B22)</f>
@@ -8951,7 +8690,7 @@
     <row r="26" spans="1:22">
       <c r="A26" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43607</v>
+        <v>43638</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(_tag2_month_all!B23="","",_tag2_month_all!B23)</f>
@@ -9041,7 +8780,7 @@
     <row r="27" spans="1:22">
       <c r="A27" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43608</v>
+        <v>43639</v>
       </c>
       <c r="B27" s="17" t="str">
         <f>IF(_tag2_month_all!B24="","",_tag2_month_all!B24)</f>
@@ -9131,7 +8870,7 @@
     <row r="28" spans="1:22">
       <c r="A28" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43609</v>
+        <v>43640</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>IF(_tag2_month_all!B25="","",_tag2_month_all!B25)</f>
@@ -9221,7 +8960,7 @@
     <row r="29" spans="1:22">
       <c r="A29" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43610</v>
+        <v>43641</v>
       </c>
       <c r="B29" s="17" t="str">
         <f>IF(_tag2_month_all!B26="","",_tag2_month_all!B26)</f>
@@ -9311,7 +9050,7 @@
     <row r="30" spans="1:22">
       <c r="A30" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43611</v>
+        <v>43642</v>
       </c>
       <c r="B30" s="17" t="str">
         <f>IF(_tag2_month_all!B27="","",_tag2_month_all!B27)</f>
@@ -9401,7 +9140,7 @@
     <row r="31" spans="1:22">
       <c r="A31" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43612</v>
+        <v>43643</v>
       </c>
       <c r="B31" s="17" t="str">
         <f>IF(_tag2_month_all!B28="","",_tag2_month_all!B28)</f>
@@ -9491,7 +9230,7 @@
     <row r="32" spans="1:22">
       <c r="A32" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43613</v>
+        <v>43644</v>
       </c>
       <c r="B32" s="17" t="str">
         <f>IF(_tag2_month_all!B29="","",_tag2_month_all!B29)</f>
@@ -9581,7 +9320,7 @@
     <row r="33" spans="1:22">
       <c r="A33" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43614</v>
+        <v>43645</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>IF(_tag2_month_all!B30="","",_tag2_month_all!B30)</f>
@@ -9671,7 +9410,7 @@
     <row r="34" spans="1:22">
       <c r="A34" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43615</v>
+        <v>43646</v>
       </c>
       <c r="B34" s="17" t="str">
         <f>IF(_tag2_month_all!B31="","",_tag2_month_all!B31)</f>
@@ -9761,7 +9500,7 @@
     <row r="35" spans="1:22">
       <c r="A35" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>43616</v>
+        <v>43647</v>
       </c>
       <c r="B35" s="17" t="str">
         <f>IF(_tag2_month_all!B32="","",_tag2_month_all!B32)</f>
@@ -9850,7 +9589,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="17" t="str">
         <f t="shared" ref="B36:V36" si="1">IFERROR(AVERAGE(B5:B35),"")</f>
@@ -9951,8 +9690,8 @@
   <sheetPr/>
   <dimension ref="A1:AK1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9962,100 +9701,100 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -10081,70 +9820,70 @@
     <row r="1" s="1" customFormat="1" ht="78" customHeight="1" spans="1:23">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -10166,7 +9905,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <v>5</v>
